--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -43,7 +43,7 @@
       <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill/>
     </fill>
@@ -180,6 +180,12 @@
         <bgColor rgb="FF002200"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004400"/>
+        <bgColor rgb="FF004400"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -282,6 +288,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -359,7 +367,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -374,13 +382,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -399,13 +407,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -424,13 +432,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -449,13 +457,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -474,13 +482,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -499,13 +507,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -524,13 +532,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -549,13 +557,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -574,13 +582,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -599,13 +607,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -624,13 +632,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -649,13 +657,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -674,13 +682,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -699,13 +707,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -724,13 +732,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -749,13 +757,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -774,13 +782,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -799,13 +807,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -824,13 +832,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -849,13 +857,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -874,13 +882,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -899,13 +907,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -924,13 +932,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -949,13 +957,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -974,13 +982,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -999,13 +1007,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1024,13 +1032,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1049,13 +1057,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1074,13 +1082,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1099,13 +1107,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1124,13 +1132,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1149,13 +1157,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1174,13 +1182,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1199,13 +1207,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1224,13 +1232,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1249,13 +1257,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1274,13 +1282,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1299,13 +1307,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1324,13 +1332,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1349,13 +1357,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1374,13 +1382,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1399,13 +1407,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1424,13 +1432,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1449,13 +1457,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1725,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1799,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 03:00 dom</t>
-        </is>
-      </c>
-      <c r="B2" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" s="49" t="n">
-        <v>71</v>
+          <t>2024-01-13 15:00 Sat</t>
+        </is>
+      </c>
+      <c r="B2" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="41" t="n">
+        <v>58</v>
       </c>
       <c r="D2" s="41" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1818,31 +1826,31 @@
       </c>
       <c r="F2" s="42" t="inlineStr"/>
       <c r="G2" s="42" t="inlineStr"/>
-      <c r="H2" s="38" t="inlineStr">
+      <c r="H2" s="53" t="inlineStr">
+        <is>
+          <t>17.8</t>
+        </is>
+      </c>
+      <c r="I2" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I2" s="42" t="inlineStr">
-        <is>
-          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 06:00 dom</t>
-        </is>
-      </c>
-      <c r="B3" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" s="49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" s="48" t="n">
-        <v>26</v>
+          <t>2024-01-13 18:00 Sat</t>
+        </is>
+      </c>
+      <c r="B3" s="60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="46" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1851,31 +1859,31 @@
       </c>
       <c r="F3" s="42" t="inlineStr"/>
       <c r="G3" s="42" t="inlineStr"/>
-      <c r="H3" s="38" t="inlineStr">
+      <c r="H3" s="53" t="inlineStr">
+        <is>
+          <t>10.7</t>
+        </is>
+      </c>
+      <c r="I3" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I3" s="42" t="inlineStr">
-        <is>
-          <t>2.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 09:00 dom</t>
-        </is>
-      </c>
-      <c r="B4" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C4" s="41" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" s="50" t="n">
-        <v>36</v>
+          <t>2024-01-13 21:00 Sat</t>
+        </is>
+      </c>
+      <c r="B4" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
@@ -1884,9 +1892,9 @@
       </c>
       <c r="F4" s="42" t="inlineStr"/>
       <c r="G4" s="42" t="inlineStr"/>
-      <c r="H4" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H4" s="42" t="inlineStr">
+        <is>
+          <t>4.9</t>
         </is>
       </c>
       <c r="I4" s="38" t="inlineStr">
@@ -1898,17 +1906,17 @@
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 12:00 dom</t>
-        </is>
-      </c>
-      <c r="B5" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C5" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" s="58" t="n">
-        <v>39</v>
+          <t>2024-01-14 00:00 Sun</t>
+        </is>
+      </c>
+      <c r="B5" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="49" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1917,9 +1925,9 @@
       </c>
       <c r="F5" s="42" t="inlineStr"/>
       <c r="G5" s="42" t="inlineStr"/>
-      <c r="H5" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H5" s="42" t="inlineStr">
+        <is>
+          <t>2.7</t>
         </is>
       </c>
       <c r="I5" s="38" t="inlineStr">
@@ -1931,17 +1939,17 @@
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 15:00 dom</t>
-        </is>
-      </c>
-      <c r="B6" s="41" t="n">
-        <v>21</v>
+          <t>2024-01-14 03:00 Sun</t>
+        </is>
+      </c>
+      <c r="B6" s="60" t="n">
+        <v>4</v>
       </c>
       <c r="C6" s="49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" s="48" t="n">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="D6" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1950,31 +1958,31 @@
       </c>
       <c r="F6" s="42" t="inlineStr"/>
       <c r="G6" s="42" t="inlineStr"/>
-      <c r="H6" s="38" t="inlineStr">
+      <c r="H6" s="42" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I6" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I6" s="42" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 18:00 dom</t>
-        </is>
-      </c>
-      <c r="B7" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D7" s="48" t="n">
-        <v>20</v>
+          <t>2024-01-14 06:00 Sun</t>
+        </is>
+      </c>
+      <c r="B7" s="60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="49" t="n">
+        <v>78</v>
+      </c>
+      <c r="D7" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -1983,31 +1991,31 @@
       </c>
       <c r="F7" s="42" t="inlineStr"/>
       <c r="G7" s="42" t="inlineStr"/>
-      <c r="H7" s="38" t="inlineStr">
+      <c r="H7" s="42" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="I7" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I7" s="42" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2023-11-05 21:00 dom</t>
-        </is>
-      </c>
-      <c r="B8" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C8" s="49" t="n">
-        <v>79</v>
-      </c>
-      <c r="D8" s="44" t="n">
-        <v>11</v>
+          <t>2024-01-14 09:00 Sun</t>
+        </is>
+      </c>
+      <c r="B8" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" s="41" t="n">
+        <v>59</v>
+      </c>
+      <c r="D8" s="41" t="n">
+        <v>13</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2016,9 +2024,9 @@
       </c>
       <c r="F8" s="42" t="inlineStr"/>
       <c r="G8" s="42" t="inlineStr"/>
-      <c r="H8" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H8" s="42" t="inlineStr">
+        <is>
+          <t>2.6</t>
         </is>
       </c>
       <c r="I8" s="38" t="inlineStr">
@@ -2030,17 +2038,17 @@
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 00:00 lun</t>
-        </is>
-      </c>
-      <c r="B9" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C9" s="49" t="n">
-        <v>78</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>9</v>
+          <t>2024-01-14 12:00 Sun</t>
+        </is>
+      </c>
+      <c r="B9" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" s="41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" s="41" t="n">
+        <v>17</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2049,9 +2057,9 @@
       </c>
       <c r="F9" s="42" t="inlineStr"/>
       <c r="G9" s="42" t="inlineStr"/>
-      <c r="H9" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H9" s="42" t="inlineStr">
+        <is>
+          <t>3.6</t>
         </is>
       </c>
       <c r="I9" s="38" t="inlineStr">
@@ -2063,17 +2071,17 @@
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 03:00 lun</t>
-        </is>
-      </c>
-      <c r="B10" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="C10" s="49" t="n">
-        <v>81</v>
+          <t>2024-01-14 15:00 Sun</t>
+        </is>
+      </c>
+      <c r="B10" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="46" t="n">
+        <v>62</v>
       </c>
       <c r="D10" s="44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2082,9 +2090,9 @@
       </c>
       <c r="F10" s="42" t="inlineStr"/>
       <c r="G10" s="42" t="inlineStr"/>
-      <c r="H10" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H10" s="42" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
       <c r="I10" s="38" t="inlineStr">
@@ -2096,17 +2104,17 @@
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 06:00 lun</t>
-        </is>
-      </c>
-      <c r="B11" s="41" t="n">
-        <v>16</v>
+          <t>2024-01-14 18:00 Sun</t>
+        </is>
+      </c>
+      <c r="B11" s="60" t="n">
+        <v>7</v>
       </c>
       <c r="C11" s="49" t="n">
-        <v>78</v>
-      </c>
-      <c r="D11" s="45" t="n">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="D11" s="41" t="n">
+        <v>13</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
@@ -2115,9 +2123,9 @@
       </c>
       <c r="F11" s="42" t="inlineStr"/>
       <c r="G11" s="42" t="inlineStr"/>
-      <c r="H11" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H11" s="42" t="inlineStr">
+        <is>
+          <t>3.5</t>
         </is>
       </c>
       <c r="I11" s="38" t="inlineStr">
@@ -2129,17 +2137,17 @@
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 09:00 lun</t>
-        </is>
-      </c>
-      <c r="B12" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C12" s="41" t="n">
-        <v>54</v>
+          <t>2024-01-14 21:00 Sun</t>
+        </is>
+      </c>
+      <c r="B12" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="49" t="n">
+        <v>74</v>
       </c>
       <c r="D12" s="41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
@@ -2148,31 +2156,31 @@
       </c>
       <c r="F12" s="42" t="inlineStr"/>
       <c r="G12" s="42" t="inlineStr"/>
-      <c r="H12" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H12" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I12" s="56" t="inlineStr">
+        <is>
+          <t>63.4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 12:00 lun</t>
-        </is>
-      </c>
-      <c r="B13" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" s="41" t="n">
-        <v>49</v>
+          <t>2024-01-15 00:00 Mon</t>
+        </is>
+      </c>
+      <c r="B13" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="49" t="n">
+        <v>78</v>
       </c>
       <c r="D13" s="41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2183,29 +2191,29 @@
       <c r="G13" s="42" t="inlineStr"/>
       <c r="H13" s="42" t="inlineStr">
         <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="I13" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I13" s="55" t="inlineStr">
+        <is>
+          <t>81.7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 15:00 lun</t>
-        </is>
-      </c>
-      <c r="B14" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C14" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D14" s="41" t="n">
-        <v>17</v>
+          <t>2024-01-15 03:00 Mon</t>
+        </is>
+      </c>
+      <c r="B14" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="49" t="n">
+        <v>81</v>
+      </c>
+      <c r="D14" s="48" t="n">
+        <v>21</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2214,64 +2222,64 @@
       </c>
       <c r="F14" s="42" t="inlineStr"/>
       <c r="G14" s="42" t="inlineStr"/>
-      <c r="H14" s="42" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I14" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H14" s="57" t="inlineStr">
+        <is>
+          <t>38.4</t>
+        </is>
+      </c>
+      <c r="I14" s="55" t="inlineStr">
+        <is>
+          <t>90.9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 18:00 lun</t>
-        </is>
-      </c>
-      <c r="B15" s="41" t="n">
-        <v>18</v>
+          <t>2024-01-15 06:00 Mon</t>
+        </is>
+      </c>
+      <c r="B15" s="46" t="n">
+        <v>11</v>
       </c>
       <c r="C15" s="49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D15" s="41" t="n">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="D15" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F15" s="42" t="inlineStr"/>
+      <c r="F15" s="46" t="inlineStr"/>
       <c r="G15" s="42" t="inlineStr"/>
-      <c r="H15" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I15" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H15" s="56" t="inlineStr">
+        <is>
+          <t>69.1</t>
+        </is>
+      </c>
+      <c r="I15" s="55" t="inlineStr">
+        <is>
+          <t>91.6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2023-11-06 21:00 lun</t>
-        </is>
-      </c>
-      <c r="B16" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="C16" s="46" t="n">
-        <v>68</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>9</v>
+          <t>2024-01-15 09:00 Mon</t>
+        </is>
+      </c>
+      <c r="B16" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="49" t="n">
+        <v>76</v>
+      </c>
+      <c r="D16" s="48" t="n">
+        <v>27</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2280,31 +2288,31 @@
       </c>
       <c r="F16" s="42" t="inlineStr"/>
       <c r="G16" s="42" t="inlineStr"/>
-      <c r="H16" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H16" s="56" t="inlineStr">
+        <is>
+          <t>67.2</t>
+        </is>
+      </c>
+      <c r="I16" s="55" t="inlineStr">
+        <is>
+          <t>99.4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 00:00 mar</t>
-        </is>
-      </c>
-      <c r="B17" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="C17" s="46" t="n">
-        <v>68</v>
-      </c>
-      <c r="D17" s="44" t="n">
-        <v>7</v>
+          <t>2024-01-15 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B17" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="49" t="n">
+        <v>82</v>
+      </c>
+      <c r="D17" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2313,31 +2321,31 @@
       </c>
       <c r="F17" s="42" t="inlineStr"/>
       <c r="G17" s="42" t="inlineStr"/>
-      <c r="H17" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H17" s="56" t="inlineStr">
+        <is>
+          <t>63.7</t>
+        </is>
+      </c>
+      <c r="I17" s="55" t="inlineStr">
+        <is>
+          <t>80.9</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 03:00 mar</t>
-        </is>
-      </c>
-      <c r="B18" s="41" t="n">
-        <v>16</v>
+          <t>2024-01-15 15:00 Mon</t>
+        </is>
+      </c>
+      <c r="B18" s="46" t="n">
+        <v>12</v>
       </c>
       <c r="C18" s="49" t="n">
-        <v>76</v>
-      </c>
-      <c r="D18" s="44" t="n">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2346,31 +2354,31 @@
       </c>
       <c r="F18" s="42" t="inlineStr"/>
       <c r="G18" s="42" t="inlineStr"/>
-      <c r="H18" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H18" s="56" t="inlineStr">
+        <is>
+          <t>63.3</t>
+        </is>
+      </c>
+      <c r="I18" s="57" t="inlineStr">
+        <is>
+          <t>35.3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 06:00 mar</t>
-        </is>
-      </c>
-      <c r="B19" s="41" t="n">
-        <v>16</v>
+          <t>2024-01-15 18:00 Mon</t>
+        </is>
+      </c>
+      <c r="B19" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C19" s="49" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D19" s="44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2379,31 +2387,31 @@
       </c>
       <c r="F19" s="42" t="inlineStr"/>
       <c r="G19" s="42" t="inlineStr"/>
-      <c r="H19" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I19" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H19" s="57" t="inlineStr">
+        <is>
+          <t>35.1</t>
+        </is>
+      </c>
+      <c r="I19" s="53" t="inlineStr">
+        <is>
+          <t>17.6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 09:00 mar</t>
-        </is>
-      </c>
-      <c r="B20" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C20" s="41" t="n">
-        <v>56</v>
+          <t>2024-01-15 21:00 Mon</t>
+        </is>
+      </c>
+      <c r="B20" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="49" t="n">
+        <v>89</v>
       </c>
       <c r="D20" s="44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2412,31 +2420,31 @@
       </c>
       <c r="F20" s="42" t="inlineStr"/>
       <c r="G20" s="42" t="inlineStr"/>
-      <c r="H20" s="38" t="inlineStr">
+      <c r="H20" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I20" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I20" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 12:00 mar</t>
-        </is>
-      </c>
-      <c r="B21" s="40" t="n">
-        <v>23</v>
-      </c>
-      <c r="C21" s="41" t="n">
-        <v>49</v>
+          <t>2024-01-16 00:00 Tue</t>
+        </is>
+      </c>
+      <c r="B21" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" s="49" t="n">
+        <v>90</v>
       </c>
       <c r="D21" s="41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E21" s="38" t="inlineStr">
         <is>
@@ -2445,31 +2453,31 @@
       </c>
       <c r="F21" s="42" t="inlineStr"/>
       <c r="G21" s="42" t="inlineStr"/>
-      <c r="H21" s="38" t="inlineStr">
+      <c r="H21" s="42" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="I21" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I21" s="42" t="inlineStr">
-        <is>
-          <t>3.3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 15:00 mar</t>
-        </is>
-      </c>
-      <c r="B22" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D22" s="41" t="n">
-        <v>14</v>
+          <t>2024-01-16 03:00 Tue</t>
+        </is>
+      </c>
+      <c r="B22" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="49" t="n">
+        <v>90</v>
+      </c>
+      <c r="D22" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2485,24 +2493,24 @@
       </c>
       <c r="I22" s="42" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 18:00 mar</t>
-        </is>
-      </c>
-      <c r="B23" s="41" t="n">
-        <v>18</v>
+          <t>2024-01-16 06:00 Tue</t>
+        </is>
+      </c>
+      <c r="B23" s="60" t="n">
+        <v>9</v>
       </c>
       <c r="C23" s="49" t="n">
-        <v>74</v>
-      </c>
-      <c r="D23" s="41" t="n">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="D23" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E23" s="38" t="inlineStr">
         <is>
@@ -2516,26 +2524,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I23" s="42" t="inlineStr">
-        <is>
-          <t>1.9</t>
+      <c r="I23" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2023-11-07 21:00 mar</t>
+          <t>2024-01-16 09:00 Tue</t>
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C24" s="49" t="n">
-        <v>89</v>
-      </c>
-      <c r="D24" s="41" t="n">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C24" s="46" t="n">
+        <v>63</v>
+      </c>
+      <c r="D24" s="44" t="n">
+        <v>8</v>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
@@ -2544,31 +2552,31 @@
       </c>
       <c r="F24" s="42" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="38" t="inlineStr">
+      <c r="H24" s="42" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="I24" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I24" s="42" t="inlineStr">
-        <is>
-          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 00:00 mer</t>
+          <t>2024-01-16 12:00 Tue</t>
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C25" s="49" t="n">
-        <v>92</v>
-      </c>
-      <c r="D25" s="41" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D25" s="44" t="n">
+        <v>8</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
@@ -2577,31 +2585,31 @@
       </c>
       <c r="F25" s="42" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="38" t="inlineStr">
+      <c r="H25" s="52" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="I25" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I25" s="42" t="inlineStr">
-        <is>
-          <t>3.5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 03:00 mer</t>
+          <t>2024-01-16 15:00 Tue</t>
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C26" s="49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D26" s="41" t="n">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C26" s="46" t="n">
+        <v>69</v>
+      </c>
+      <c r="D26" s="42" t="n">
+        <v>0</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2610,31 +2618,31 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="38" t="inlineStr">
+      <c r="H26" s="56" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I26" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I26" s="56" t="inlineStr">
-        <is>
-          <t>74.7</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 06:00 mer</t>
-        </is>
-      </c>
-      <c r="B27" s="41" t="n">
-        <v>18</v>
+          <t>2024-01-16 18:00 Tue</t>
+        </is>
+      </c>
+      <c r="B27" s="46" t="n">
+        <v>12</v>
       </c>
       <c r="C27" s="49" t="n">
-        <v>94</v>
-      </c>
-      <c r="D27" s="41" t="n">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="D27" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E27" s="38" t="inlineStr">
         <is>
@@ -2643,31 +2651,31 @@
       </c>
       <c r="F27" s="42" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="38" t="inlineStr">
+      <c r="H27" s="55" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="I27" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I27" s="55" t="inlineStr">
-        <is>
-          <t>87.4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 09:00 mer</t>
-        </is>
-      </c>
-      <c r="B28" s="41" t="n">
-        <v>20</v>
+          <t>2024-01-16 21:00 Tue</t>
+        </is>
+      </c>
+      <c r="B28" s="46" t="n">
+        <v>12</v>
       </c>
       <c r="C28" s="49" t="n">
-        <v>77</v>
-      </c>
-      <c r="D28" s="44" t="n">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="D28" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
@@ -2676,31 +2684,31 @@
       </c>
       <c r="F28" s="42" t="inlineStr"/>
       <c r="G28" s="42" t="inlineStr"/>
-      <c r="H28" s="53" t="inlineStr">
-        <is>
-          <t>13.9</t>
-        </is>
-      </c>
-      <c r="I28" s="55" t="inlineStr">
+      <c r="H28" s="55" t="inlineStr">
         <is>
           <t>100</t>
+        </is>
+      </c>
+      <c r="I28" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 12:00 mer</t>
-        </is>
-      </c>
-      <c r="B29" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C29" s="41" t="n">
-        <v>57</v>
+          <t>2024-01-17 00:00 Wed</t>
+        </is>
+      </c>
+      <c r="B29" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" s="49" t="n">
+        <v>83</v>
       </c>
       <c r="D29" s="44" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
@@ -2709,31 +2717,31 @@
       </c>
       <c r="F29" s="42" t="inlineStr"/>
       <c r="G29" s="42" t="inlineStr"/>
-      <c r="H29" s="53" t="inlineStr">
-        <is>
-          <t>16.5</t>
-        </is>
-      </c>
-      <c r="I29" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H29" s="56" t="inlineStr">
+        <is>
+          <t>68.6</t>
+        </is>
+      </c>
+      <c r="I29" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 15:00 mer</t>
-        </is>
-      </c>
-      <c r="B30" s="41" t="n">
-        <v>16</v>
+          <t>2024-01-17 03:00 Wed</t>
+        </is>
+      </c>
+      <c r="B30" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C30" s="49" t="n">
-        <v>79</v>
-      </c>
-      <c r="D30" s="48" t="n">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="D30" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2742,31 +2750,31 @@
       </c>
       <c r="F30" s="42" t="inlineStr"/>
       <c r="G30" s="42" t="inlineStr"/>
-      <c r="H30" s="57" t="inlineStr">
-        <is>
-          <t>40.2</t>
-        </is>
-      </c>
-      <c r="I30" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H30" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I30" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 18:00 mer</t>
-        </is>
-      </c>
-      <c r="B31" s="41" t="n">
-        <v>16</v>
+          <t>2024-01-17 06:00 Wed</t>
+        </is>
+      </c>
+      <c r="B31" s="60" t="n">
+        <v>9</v>
       </c>
       <c r="C31" s="49" t="n">
-        <v>72</v>
-      </c>
-      <c r="D31" s="48" t="n">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="D31" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
@@ -2775,31 +2783,31 @@
       </c>
       <c r="F31" s="42" t="inlineStr"/>
       <c r="G31" s="42" t="inlineStr"/>
-      <c r="H31" s="57" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="I31" s="57" t="inlineStr">
-        <is>
-          <t>52.7</t>
+      <c r="H31" s="42" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="I31" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2023-11-08 21:00 mer</t>
+          <t>2024-01-17 09:00 Wed</t>
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="46" t="n">
-        <v>66</v>
-      </c>
-      <c r="D32" s="41" t="n">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="D32" s="45" t="n">
+        <v>3</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
@@ -2808,9 +2816,9 @@
       </c>
       <c r="F32" s="42" t="inlineStr"/>
       <c r="G32" s="42" t="inlineStr"/>
-      <c r="H32" s="57" t="inlineStr">
-        <is>
-          <t>45.2</t>
+      <c r="H32" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" s="38" t="inlineStr">
@@ -2822,17 +2830,17 @@
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 00:00 gio</t>
+          <t>2024-01-17 12:00 Wed</t>
         </is>
       </c>
       <c r="B33" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C33" s="46" t="n">
-        <v>66</v>
-      </c>
-      <c r="D33" s="41" t="n">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="41" t="n">
+        <v>56</v>
+      </c>
+      <c r="D33" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
@@ -2841,9 +2849,9 @@
       </c>
       <c r="F33" s="42" t="inlineStr"/>
       <c r="G33" s="42" t="inlineStr"/>
-      <c r="H33" s="54" t="inlineStr">
-        <is>
-          <t>22.6</t>
+      <c r="H33" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" s="38" t="inlineStr">
@@ -2855,17 +2863,17 @@
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 03:00 gio</t>
-        </is>
-      </c>
-      <c r="B34" s="41" t="n">
-        <v>14</v>
+          <t>2024-01-17 15:00 Wed</t>
+        </is>
+      </c>
+      <c r="B34" s="46" t="n">
+        <v>13</v>
       </c>
       <c r="C34" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D34" s="41" t="n">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="D34" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
@@ -2881,21 +2889,21 @@
       </c>
       <c r="I34" s="42" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 06:00 gio</t>
-        </is>
-      </c>
-      <c r="B35" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C35" s="46" t="n">
-        <v>68</v>
+          <t>2024-01-17 18:00 Wed</t>
+        </is>
+      </c>
+      <c r="B35" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" s="49" t="n">
+        <v>82</v>
       </c>
       <c r="D35" s="44" t="n">
         <v>11</v>
@@ -2912,26 +2920,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I35" s="42" t="inlineStr">
-        <is>
-          <t>3.5</t>
+      <c r="I35" s="53" t="inlineStr">
+        <is>
+          <t>17.8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 09:00 gio</t>
-        </is>
-      </c>
-      <c r="B36" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C36" s="41" t="n">
-        <v>52</v>
-      </c>
-      <c r="D36" s="48" t="n">
-        <v>21</v>
+          <t>2024-01-17 21:00 Wed</t>
+        </is>
+      </c>
+      <c r="B36" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" s="49" t="n">
+        <v>86</v>
+      </c>
+      <c r="D36" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
@@ -2945,26 +2953,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I36" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I36" s="55" t="inlineStr">
+        <is>
+          <t>80.5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 12:00 gio</t>
-        </is>
-      </c>
-      <c r="B37" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C37" s="41" t="n">
-        <v>50</v>
-      </c>
-      <c r="D37" s="41" t="n">
-        <v>19</v>
+          <t>2024-01-18 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B37" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" s="49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D37" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2978,26 +2986,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I37" s="52" t="inlineStr">
-        <is>
-          <t>8.4</t>
+      <c r="I37" s="57" t="inlineStr">
+        <is>
+          <t>43.8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 15:00 gio</t>
-        </is>
-      </c>
-      <c r="B38" s="41" t="n">
-        <v>17</v>
-      </c>
-      <c r="C38" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D38" s="41" t="n">
-        <v>13</v>
+          <t>2024-01-18 03:00 Thu</t>
+        </is>
+      </c>
+      <c r="B38" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" s="49" t="n">
+        <v>92</v>
+      </c>
+      <c r="D38" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3006,31 +3014,31 @@
       </c>
       <c r="F38" s="42" t="inlineStr"/>
       <c r="G38" s="42" t="inlineStr"/>
-      <c r="H38" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I38" s="55" t="inlineStr">
-        <is>
-          <t>85.3</t>
+      <c r="H38" s="52" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="I38" s="53" t="inlineStr">
+        <is>
+          <t>11.4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 18:00 gio</t>
-        </is>
-      </c>
-      <c r="B39" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C39" s="46" t="n">
-        <v>65</v>
-      </c>
-      <c r="D39" s="44" t="n">
-        <v>6</v>
+          <t>2024-01-18 06:00 Thu</t>
+        </is>
+      </c>
+      <c r="B39" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" s="49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D39" s="48" t="n">
+        <v>23</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3039,31 +3047,31 @@
       </c>
       <c r="F39" s="42" t="inlineStr"/>
       <c r="G39" s="42" t="inlineStr"/>
-      <c r="H39" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I39" s="56" t="inlineStr">
-        <is>
-          <t>65.4</t>
+      <c r="H39" s="57" t="inlineStr">
+        <is>
+          <t>35.2</t>
+        </is>
+      </c>
+      <c r="I39" s="57" t="inlineStr">
+        <is>
+          <t>36.6</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2023-11-09 21:00 gio</t>
-        </is>
-      </c>
-      <c r="B40" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C40" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="D40" s="45" t="n">
-        <v>2</v>
+          <t>2024-01-18 09:00 Thu</t>
+        </is>
+      </c>
+      <c r="B40" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" s="49" t="n">
+        <v>84</v>
+      </c>
+      <c r="D40" s="50" t="n">
+        <v>32</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
@@ -3072,31 +3080,31 @@
       </c>
       <c r="F40" s="42" t="inlineStr"/>
       <c r="G40" s="42" t="inlineStr"/>
-      <c r="H40" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I40" s="57" t="inlineStr">
-        <is>
-          <t>38.7</t>
+      <c r="H40" s="57" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="I40" s="56" t="inlineStr">
+        <is>
+          <t>79.7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2023-11-10 00:00 ven</t>
-        </is>
-      </c>
-      <c r="B41" s="46" t="n">
-        <v>13</v>
+          <t>2024-01-18 12:00 Thu</t>
+        </is>
+      </c>
+      <c r="B41" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="C41" s="49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D41" s="45" t="n">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="D41" s="50" t="n">
+        <v>29</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3105,31 +3113,31 @@
       </c>
       <c r="F41" s="42" t="inlineStr"/>
       <c r="G41" s="42" t="inlineStr"/>
-      <c r="H41" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I41" s="57" t="inlineStr">
-        <is>
-          <t>42.8</t>
+      <c r="H41" s="57" t="inlineStr">
+        <is>
+          <t>44.6</t>
+        </is>
+      </c>
+      <c r="I41" s="55" t="inlineStr">
+        <is>
+          <t>87.1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2023-11-10 03:00 ven</t>
-        </is>
-      </c>
-      <c r="B42" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C42" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="D42" s="44" t="n">
-        <v>7</v>
+          <t>2024-01-18 15:00 Thu</t>
+        </is>
+      </c>
+      <c r="B42" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" s="49" t="n">
+        <v>90</v>
+      </c>
+      <c r="D42" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3138,31 +3146,31 @@
       </c>
       <c r="F42" s="42" t="inlineStr"/>
       <c r="G42" s="42" t="inlineStr"/>
-      <c r="H42" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I42" s="55" t="inlineStr">
-        <is>
-          <t>94.2</t>
+      <c r="H42" s="52" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="I42" s="56" t="inlineStr">
+        <is>
+          <t>69.9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2023-11-10 06:00 ven</t>
+          <t>2024-01-18 18:00 Thu</t>
         </is>
       </c>
       <c r="B43" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="C43" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D43" s="41" t="n">
-        <v>13</v>
+      <c r="C43" s="49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D43" s="50" t="n">
+        <v>33</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3171,31 +3179,31 @@
       </c>
       <c r="F43" s="42" t="inlineStr"/>
       <c r="G43" s="42" t="inlineStr"/>
-      <c r="H43" s="53" t="inlineStr">
-        <is>
-          <t>15.1</t>
-        </is>
-      </c>
-      <c r="I43" s="55" t="inlineStr">
-        <is>
-          <t>84.5</t>
+      <c r="H43" s="52" t="inlineStr">
+        <is>
+          <t>6.8</t>
+        </is>
+      </c>
+      <c r="I43" s="56" t="inlineStr">
+        <is>
+          <t>76.9</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2023-11-10 09:00 ven</t>
+          <t>2024-01-18 21:00 Thu</t>
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>19</v>
-      </c>
-      <c r="C44" s="41" t="n">
-        <v>55</v>
-      </c>
-      <c r="D44" s="48" t="n">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C44" s="49" t="n">
+        <v>92</v>
+      </c>
+      <c r="D44" s="50" t="n">
+        <v>29</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3204,31 +3212,31 @@
       </c>
       <c r="F44" s="42" t="inlineStr"/>
       <c r="G44" s="42" t="inlineStr"/>
-      <c r="H44" s="56" t="inlineStr">
-        <is>
-          <t>68.2</t>
-        </is>
-      </c>
-      <c r="I44" s="55" t="inlineStr">
-        <is>
-          <t>97</t>
+      <c r="H44" s="53" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="I44" s="42" t="inlineStr">
+        <is>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2023-11-10 12:00 ven</t>
-        </is>
-      </c>
-      <c r="B45" s="41" t="n">
-        <v>19</v>
-      </c>
-      <c r="C45" s="46" t="n">
-        <v>65</v>
-      </c>
-      <c r="D45" s="48" t="n">
-        <v>24</v>
+          <t>2024-01-19 00:00 Fri</t>
+        </is>
+      </c>
+      <c r="B45" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" s="49" t="n">
+        <v>90</v>
+      </c>
+      <c r="D45" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E45" s="38" t="inlineStr">
         <is>
@@ -3237,19 +3245,19 @@
       </c>
       <c r="F45" s="42" t="inlineStr"/>
       <c r="G45" s="42" t="inlineStr"/>
-      <c r="H45" s="55" t="inlineStr">
-        <is>
-          <t>81.5</t>
-        </is>
-      </c>
-      <c r="I45" s="55" t="inlineStr">
-        <is>
-          <t>89.9</t>
+      <c r="H45" s="53" t="inlineStr">
+        <is>
+          <t>10.5</t>
+        </is>
+      </c>
+      <c r="I45" s="53" t="inlineStr">
+        <is>
+          <t>15.8</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1807,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2024-01-13 15:00 Sat</t>
+          <t>2024-01-14 03:00 Sun</t>
         </is>
       </c>
       <c r="B2" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="41" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" s="41" t="n">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="49" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1826,9 +1826,9 @@
       </c>
       <c r="F2" s="42" t="inlineStr"/>
       <c r="G2" s="42" t="inlineStr"/>
-      <c r="H2" s="53" t="inlineStr">
-        <is>
-          <t>17.8</t>
+      <c r="H2" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="I2" s="38" t="inlineStr">
@@ -1840,17 +1840,17 @@
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2024-01-13 18:00 Sat</t>
+          <t>2024-01-14 06:00 Sun</t>
         </is>
       </c>
       <c r="B3" s="60" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" s="41" t="n">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1859,9 +1859,9 @@
       </c>
       <c r="F3" s="42" t="inlineStr"/>
       <c r="G3" s="42" t="inlineStr"/>
-      <c r="H3" s="53" t="inlineStr">
-        <is>
-          <t>10.7</t>
+      <c r="H3" s="42" t="inlineStr">
+        <is>
+          <t>3.4</t>
         </is>
       </c>
       <c r="I3" s="38" t="inlineStr">
@@ -1873,17 +1873,17 @@
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2024-01-13 21:00 Sat</t>
+          <t>2024-01-14 09:00 Sun</t>
         </is>
       </c>
       <c r="B4" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="49" t="n">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="41" t="n">
+        <v>60</v>
       </c>
       <c r="D4" s="44" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
@@ -1892,9 +1892,9 @@
       </c>
       <c r="F4" s="42" t="inlineStr"/>
       <c r="G4" s="42" t="inlineStr"/>
-      <c r="H4" s="42" t="inlineStr">
-        <is>
-          <t>4.9</t>
+      <c r="H4" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I4" s="38" t="inlineStr">
@@ -1906,17 +1906,17 @@
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 00:00 Sun</t>
-        </is>
-      </c>
-      <c r="B5" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="49" t="n">
-        <v>74</v>
+          <t>2024-01-14 12:00 Sun</t>
+        </is>
+      </c>
+      <c r="B5" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" s="41" t="n">
+        <v>44</v>
       </c>
       <c r="D5" s="44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
       <c r="G5" s="42" t="inlineStr"/>
       <c r="H5" s="42" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I5" s="38" t="inlineStr">
@@ -1939,17 +1939,17 @@
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 03:00 Sun</t>
+          <t>2024-01-14 15:00 Sun</t>
         </is>
       </c>
       <c r="B6" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="49" t="n">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="46" t="n">
+        <v>62</v>
       </c>
       <c r="D6" s="44" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1958,9 +1958,9 @@
       </c>
       <c r="F6" s="42" t="inlineStr"/>
       <c r="G6" s="42" t="inlineStr"/>
-      <c r="H6" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H6" s="57" t="inlineStr">
+        <is>
+          <t>33.5</t>
         </is>
       </c>
       <c r="I6" s="38" t="inlineStr">
@@ -1972,17 +1972,17 @@
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 06:00 Sun</t>
+          <t>2024-01-14 18:00 Sun</t>
         </is>
       </c>
       <c r="B7" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="49" t="n">
-        <v>78</v>
-      </c>
-      <c r="D7" s="45" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="46" t="n">
+        <v>66</v>
+      </c>
+      <c r="D7" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -1991,9 +1991,9 @@
       </c>
       <c r="F7" s="42" t="inlineStr"/>
       <c r="G7" s="42" t="inlineStr"/>
-      <c r="H7" s="42" t="inlineStr">
-        <is>
-          <t>0.9</t>
+      <c r="H7" s="57" t="inlineStr">
+        <is>
+          <t>52.8</t>
         </is>
       </c>
       <c r="I7" s="38" t="inlineStr">
@@ -2005,17 +2005,17 @@
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 09:00 Sun</t>
+          <t>2024-01-14 21:00 Sun</t>
         </is>
       </c>
       <c r="B8" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" s="41" t="n">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="49" t="n">
+        <v>73</v>
       </c>
       <c r="D8" s="41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2024,31 +2024,31 @@
       </c>
       <c r="F8" s="42" t="inlineStr"/>
       <c r="G8" s="42" t="inlineStr"/>
-      <c r="H8" s="42" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="I8" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H8" s="54" t="inlineStr">
+        <is>
+          <t>28.9</t>
+        </is>
+      </c>
+      <c r="I8" s="52" t="inlineStr">
+        <is>
+          <t>8.4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 12:00 Sun</t>
+          <t>2024-01-15 00:00 Mon</t>
         </is>
       </c>
       <c r="B9" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" s="41" t="n">
-        <v>55</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="49" t="n">
+        <v>77</v>
       </c>
       <c r="D9" s="41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2057,31 +2057,31 @@
       </c>
       <c r="F9" s="42" t="inlineStr"/>
       <c r="G9" s="42" t="inlineStr"/>
-      <c r="H9" s="42" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="I9" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H9" s="53" t="inlineStr">
+        <is>
+          <t>16.9</t>
+        </is>
+      </c>
+      <c r="I9" s="52" t="inlineStr">
+        <is>
+          <t>6.8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 15:00 Sun</t>
+          <t>2024-01-15 03:00 Mon</t>
         </is>
       </c>
       <c r="B10" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="46" t="n">
-        <v>62</v>
-      </c>
-      <c r="D10" s="44" t="n">
         <v>10</v>
+      </c>
+      <c r="C10" s="49" t="n">
+        <v>82</v>
+      </c>
+      <c r="D10" s="41" t="n">
+        <v>18</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2090,97 +2090,97 @@
       </c>
       <c r="F10" s="42" t="inlineStr"/>
       <c r="G10" s="42" t="inlineStr"/>
-      <c r="H10" s="42" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="I10" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H10" s="53" t="inlineStr">
+        <is>
+          <t>19.9</t>
+        </is>
+      </c>
+      <c r="I10" s="56" t="inlineStr">
+        <is>
+          <t>76.8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 18:00 Sun</t>
+          <t>2024-01-15 06:00 Mon</t>
         </is>
       </c>
       <c r="B11" s="60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="49" t="n">
-        <v>73</v>
-      </c>
-      <c r="D11" s="41" t="n">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F11" s="42" t="inlineStr"/>
+      <c r="F11" s="46" t="inlineStr"/>
       <c r="G11" s="42" t="inlineStr"/>
-      <c r="H11" s="42" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="I11" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H11" s="57" t="inlineStr">
+        <is>
+          <t>59.1</t>
+        </is>
+      </c>
+      <c r="I11" s="55" t="inlineStr">
+        <is>
+          <t>88.4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 21:00 Sun</t>
-        </is>
-      </c>
-      <c r="B12" s="60" t="n">
-        <v>8</v>
+          <t>2024-01-15 09:00 Mon</t>
+        </is>
+      </c>
+      <c r="B12" s="46" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="49" t="n">
-        <v>74</v>
-      </c>
-      <c r="D12" s="41" t="n">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="D12" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" s="42" t="inlineStr"/>
+      <c r="F12" s="46" t="inlineStr"/>
       <c r="G12" s="42" t="inlineStr"/>
-      <c r="H12" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I12" s="56" t="inlineStr">
-        <is>
-          <t>63.4</t>
+      <c r="H12" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I12" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 00:00 Mon</t>
-        </is>
-      </c>
-      <c r="B13" s="60" t="n">
-        <v>8</v>
+          <t>2024-01-15 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B13" s="46" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="49" t="n">
-        <v>78</v>
-      </c>
-      <c r="D13" s="41" t="n">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="D13" s="48" t="n">
+        <v>25</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2189,31 +2189,31 @@
       </c>
       <c r="F13" s="42" t="inlineStr"/>
       <c r="G13" s="42" t="inlineStr"/>
-      <c r="H13" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H13" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="I13" s="55" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 03:00 Mon</t>
-        </is>
-      </c>
-      <c r="B14" s="60" t="n">
-        <v>10</v>
+          <t>2024-01-15 15:00 Mon</t>
+        </is>
+      </c>
+      <c r="B14" s="46" t="n">
+        <v>12</v>
       </c>
       <c r="C14" s="49" t="n">
-        <v>81</v>
-      </c>
-      <c r="D14" s="48" t="n">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="D14" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2224,62 +2224,62 @@
       <c r="G14" s="42" t="inlineStr"/>
       <c r="H14" s="57" t="inlineStr">
         <is>
-          <t>38.4</t>
-        </is>
-      </c>
-      <c r="I14" s="55" t="inlineStr">
-        <is>
-          <t>90.9</t>
+          <t>31.5</t>
+        </is>
+      </c>
+      <c r="I14" s="57" t="inlineStr">
+        <is>
+          <t>56.9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 06:00 Mon</t>
-        </is>
-      </c>
-      <c r="B15" s="46" t="n">
-        <v>11</v>
+          <t>2024-01-15 18:00 Mon</t>
+        </is>
+      </c>
+      <c r="B15" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C15" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D15" s="48" t="n">
-        <v>22</v>
+        <v>92</v>
+      </c>
+      <c r="D15" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F15" s="46" t="inlineStr"/>
+      <c r="F15" s="42" t="inlineStr"/>
       <c r="G15" s="42" t="inlineStr"/>
-      <c r="H15" s="56" t="inlineStr">
-        <is>
-          <t>69.1</t>
-        </is>
-      </c>
-      <c r="I15" s="55" t="inlineStr">
-        <is>
-          <t>91.6</t>
+      <c r="H15" s="53" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="I15" s="54" t="inlineStr">
+        <is>
+          <t>28.5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 09:00 Mon</t>
-        </is>
-      </c>
-      <c r="B16" s="46" t="n">
+          <t>2024-01-15 21:00 Mon</t>
+        </is>
+      </c>
+      <c r="B16" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="49" t="n">
+        <v>87</v>
+      </c>
+      <c r="D16" s="41" t="n">
         <v>13</v>
-      </c>
-      <c r="C16" s="49" t="n">
-        <v>76</v>
-      </c>
-      <c r="D16" s="48" t="n">
-        <v>27</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2288,31 +2288,31 @@
       </c>
       <c r="F16" s="42" t="inlineStr"/>
       <c r="G16" s="42" t="inlineStr"/>
-      <c r="H16" s="56" t="inlineStr">
-        <is>
-          <t>67.2</t>
-        </is>
-      </c>
-      <c r="I16" s="55" t="inlineStr">
-        <is>
-          <t>99.4</t>
+      <c r="H16" s="42" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="I16" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 12:00 Mon</t>
-        </is>
-      </c>
-      <c r="B17" s="46" t="n">
-        <v>12</v>
+          <t>2024-01-16 00:00 Tue</t>
+        </is>
+      </c>
+      <c r="B17" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C17" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D17" s="48" t="n">
-        <v>26</v>
+        <v>89</v>
+      </c>
+      <c r="D17" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2321,31 +2321,31 @@
       </c>
       <c r="F17" s="42" t="inlineStr"/>
       <c r="G17" s="42" t="inlineStr"/>
-      <c r="H17" s="56" t="inlineStr">
-        <is>
-          <t>63.7</t>
-        </is>
-      </c>
-      <c r="I17" s="55" t="inlineStr">
-        <is>
-          <t>80.9</t>
+      <c r="H17" s="42" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="I17" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 15:00 Mon</t>
-        </is>
-      </c>
-      <c r="B18" s="46" t="n">
-        <v>12</v>
+          <t>2024-01-16 03:00 Tue</t>
+        </is>
+      </c>
+      <c r="B18" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C18" s="49" t="n">
-        <v>85</v>
-      </c>
-      <c r="D18" s="48" t="n">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="D18" s="41" t="n">
+        <v>13</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2354,31 +2354,31 @@
       </c>
       <c r="F18" s="42" t="inlineStr"/>
       <c r="G18" s="42" t="inlineStr"/>
-      <c r="H18" s="56" t="inlineStr">
-        <is>
-          <t>63.3</t>
-        </is>
-      </c>
-      <c r="I18" s="57" t="inlineStr">
-        <is>
-          <t>35.3</t>
+      <c r="H18" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I18" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 18:00 Mon</t>
+          <t>2024-01-16 06:00 Tue</t>
         </is>
       </c>
       <c r="B19" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D19" s="44" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" s="49" t="n">
-        <v>91</v>
-      </c>
-      <c r="D19" s="44" t="n">
-        <v>11</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2387,31 +2387,31 @@
       </c>
       <c r="F19" s="42" t="inlineStr"/>
       <c r="G19" s="42" t="inlineStr"/>
-      <c r="H19" s="57" t="inlineStr">
-        <is>
-          <t>35.1</t>
-        </is>
-      </c>
-      <c r="I19" s="53" t="inlineStr">
-        <is>
-          <t>17.6</t>
+      <c r="H19" s="42" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I19" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 21:00 Mon</t>
+          <t>2024-01-16 09:00 Tue</t>
         </is>
       </c>
       <c r="B20" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" s="46" t="n">
+        <v>68</v>
+      </c>
+      <c r="D20" s="44" t="n">
         <v>11</v>
-      </c>
-      <c r="C20" s="49" t="n">
-        <v>89</v>
-      </c>
-      <c r="D20" s="44" t="n">
-        <v>10</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2420,9 +2420,9 @@
       </c>
       <c r="F20" s="42" t="inlineStr"/>
       <c r="G20" s="42" t="inlineStr"/>
-      <c r="H20" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H20" s="53" t="inlineStr">
+        <is>
+          <t>13.7</t>
         </is>
       </c>
       <c r="I20" s="38" t="inlineStr">
@@ -2434,14 +2434,14 @@
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 00:00 Tue</t>
-        </is>
-      </c>
-      <c r="B21" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" s="49" t="n">
-        <v>90</v>
+          <t>2024-01-16 12:00 Tue</t>
+        </is>
+      </c>
+      <c r="B21" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" s="41" t="n">
+        <v>59</v>
       </c>
       <c r="D21" s="41" t="n">
         <v>13</v>
@@ -2453,9 +2453,9 @@
       </c>
       <c r="F21" s="42" t="inlineStr"/>
       <c r="G21" s="42" t="inlineStr"/>
-      <c r="H21" s="42" t="inlineStr">
-        <is>
-          <t>2.5</t>
+      <c r="H21" s="53" t="inlineStr">
+        <is>
+          <t>19.8</t>
         </is>
       </c>
       <c r="I21" s="38" t="inlineStr">
@@ -2467,17 +2467,17 @@
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 03:00 Tue</t>
-        </is>
-      </c>
-      <c r="B22" s="60" t="n">
-        <v>10</v>
+          <t>2024-01-16 15:00 Tue</t>
+        </is>
+      </c>
+      <c r="B22" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="C22" s="49" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D22" s="44" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2486,31 +2486,31 @@
       </c>
       <c r="F22" s="42" t="inlineStr"/>
       <c r="G22" s="42" t="inlineStr"/>
-      <c r="H22" s="38" t="inlineStr">
+      <c r="H22" s="53" t="inlineStr">
+        <is>
+          <t>10.4</t>
+        </is>
+      </c>
+      <c r="I22" s="38" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="I22" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 06:00 Tue</t>
-        </is>
-      </c>
-      <c r="B23" s="60" t="n">
-        <v>9</v>
+          <t>2024-01-16 18:00 Tue</t>
+        </is>
+      </c>
+      <c r="B23" s="46" t="n">
+        <v>11</v>
       </c>
       <c r="C23" s="49" t="n">
         <v>86</v>
       </c>
       <c r="D23" s="44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="38" t="inlineStr">
         <is>
@@ -2519,9 +2519,9 @@
       </c>
       <c r="F23" s="42" t="inlineStr"/>
       <c r="G23" s="42" t="inlineStr"/>
-      <c r="H23" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H23" s="57" t="inlineStr">
+        <is>
+          <t>39.1</t>
         </is>
       </c>
       <c r="I23" s="38" t="inlineStr">
@@ -2533,17 +2533,17 @@
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 09:00 Tue</t>
-        </is>
-      </c>
-      <c r="B24" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C24" s="46" t="n">
-        <v>63</v>
-      </c>
-      <c r="D24" s="44" t="n">
-        <v>8</v>
+          <t>2024-01-16 21:00 Tue</t>
+        </is>
+      </c>
+      <c r="B24" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" s="49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D24" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
@@ -2552,9 +2552,9 @@
       </c>
       <c r="F24" s="42" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="42" t="inlineStr">
-        <is>
-          <t>4.1</t>
+      <c r="H24" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="I24" s="38" t="inlineStr">
@@ -2566,17 +2566,17 @@
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 12:00 Tue</t>
-        </is>
-      </c>
-      <c r="B25" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C25" s="41" t="n">
-        <v>55</v>
-      </c>
-      <c r="D25" s="44" t="n">
-        <v>8</v>
+          <t>2024-01-17 00:00 Wed</t>
+        </is>
+      </c>
+      <c r="B25" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="49" t="n">
+        <v>84</v>
+      </c>
+      <c r="D25" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
@@ -2585,9 +2585,9 @@
       </c>
       <c r="F25" s="42" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="52" t="inlineStr">
-        <is>
-          <t>6.6</t>
+      <c r="H25" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="I25" s="38" t="inlineStr">
@@ -2599,17 +2599,17 @@
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 15:00 Tue</t>
-        </is>
-      </c>
-      <c r="B26" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C26" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="D26" s="42" t="n">
-        <v>0</v>
+          <t>2024-01-17 03:00 Wed</t>
+        </is>
+      </c>
+      <c r="B26" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D26" s="44" t="n">
+        <v>8</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2618,9 +2618,9 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="56" t="inlineStr">
-        <is>
-          <t>75</t>
+      <c r="H26" s="55" t="inlineStr">
+        <is>
+          <t>98.6</t>
         </is>
       </c>
       <c r="I26" s="38" t="inlineStr">
@@ -2632,14 +2632,14 @@
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 18:00 Tue</t>
-        </is>
-      </c>
-      <c r="B27" s="46" t="n">
-        <v>12</v>
+          <t>2024-01-17 06:00 Wed</t>
+        </is>
+      </c>
+      <c r="B27" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C27" s="49" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D27" s="44" t="n">
         <v>7</v>
@@ -2651,9 +2651,9 @@
       </c>
       <c r="F27" s="42" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="55" t="inlineStr">
-        <is>
-          <t>87.5</t>
+      <c r="H27" s="56" t="inlineStr">
+        <is>
+          <t>74.7</t>
         </is>
       </c>
       <c r="I27" s="38" t="inlineStr">
@@ -2665,14 +2665,14 @@
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 21:00 Tue</t>
-        </is>
-      </c>
-      <c r="B28" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C28" s="49" t="n">
-        <v>75</v>
+          <t>2024-01-17 09:00 Wed</t>
+        </is>
+      </c>
+      <c r="B28" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" s="46" t="n">
+        <v>67</v>
       </c>
       <c r="D28" s="45" t="n">
         <v>5</v>
@@ -2684,9 +2684,9 @@
       </c>
       <c r="F28" s="42" t="inlineStr"/>
       <c r="G28" s="42" t="inlineStr"/>
-      <c r="H28" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H28" s="54" t="inlineStr">
+        <is>
+          <t>27.6</t>
         </is>
       </c>
       <c r="I28" s="38" t="inlineStr">
@@ -2698,17 +2698,17 @@
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 00:00 Wed</t>
-        </is>
-      </c>
-      <c r="B29" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C29" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D29" s="44" t="n">
-        <v>6</v>
+          <t>2024-01-17 12:00 Wed</t>
+        </is>
+      </c>
+      <c r="B29" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" s="41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D29" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
@@ -2717,9 +2717,9 @@
       </c>
       <c r="F29" s="42" t="inlineStr"/>
       <c r="G29" s="42" t="inlineStr"/>
-      <c r="H29" s="56" t="inlineStr">
-        <is>
-          <t>68.6</t>
+      <c r="H29" s="53" t="inlineStr">
+        <is>
+          <t>14.1</t>
         </is>
       </c>
       <c r="I29" s="38" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 03:00 Wed</t>
-        </is>
-      </c>
-      <c r="B30" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" s="49" t="n">
-        <v>84</v>
-      </c>
-      <c r="D30" s="45" t="n">
-        <v>4</v>
+          <t>2024-01-17 15:00 Wed</t>
+        </is>
+      </c>
+      <c r="B30" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" s="46" t="n">
+        <v>69</v>
+      </c>
+      <c r="D30" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
       <c r="G30" s="42" t="inlineStr"/>
       <c r="H30" s="42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I30" s="38" t="inlineStr">
@@ -2764,17 +2764,17 @@
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 06:00 Wed</t>
+          <t>2024-01-17 18:00 Wed</t>
         </is>
       </c>
       <c r="B31" s="60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="49" t="n">
-        <v>90</v>
-      </c>
-      <c r="D31" s="44" t="n">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="D31" s="41" t="n">
+        <v>13</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
       <c r="G31" s="42" t="inlineStr"/>
       <c r="H31" s="42" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I31" s="38" t="inlineStr">
@@ -2797,17 +2797,17 @@
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 09:00 Wed</t>
-        </is>
-      </c>
-      <c r="B32" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C32" s="46" t="n">
-        <v>68</v>
-      </c>
-      <c r="D32" s="45" t="n">
-        <v>3</v>
+          <t>2024-01-17 21:00 Wed</t>
+        </is>
+      </c>
+      <c r="B32" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="49" t="n">
+        <v>88</v>
+      </c>
+      <c r="D32" s="48" t="n">
+        <v>21</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
@@ -2830,17 +2830,17 @@
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 12:00 Wed</t>
-        </is>
-      </c>
-      <c r="B33" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C33" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D33" s="44" t="n">
-        <v>7</v>
+          <t>2024-01-18 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B33" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" s="49" t="n">
+        <v>90</v>
+      </c>
+      <c r="D33" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
@@ -2849,64 +2849,64 @@
       </c>
       <c r="F33" s="42" t="inlineStr"/>
       <c r="G33" s="42" t="inlineStr"/>
-      <c r="H33" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I33" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H33" s="42" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I33" s="53" t="inlineStr">
+        <is>
+          <t>18.8</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 15:00 Wed</t>
+          <t>2024-01-18 03:00 Thu</t>
         </is>
       </c>
       <c r="B34" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="C34" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="D34" s="44" t="n">
-        <v>7</v>
+      <c r="C34" s="49" t="n">
+        <v>89</v>
+      </c>
+      <c r="D34" s="48" t="n">
+        <v>25</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F34" s="42" t="inlineStr"/>
+      <c r="F34" s="46" t="inlineStr"/>
       <c r="G34" s="42" t="inlineStr"/>
-      <c r="H34" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I34" s="42" t="inlineStr">
-        <is>
-          <t>2.7</t>
+      <c r="H34" s="53" t="inlineStr">
+        <is>
+          <t>17.4</t>
+        </is>
+      </c>
+      <c r="I34" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 18:00 Wed</t>
+          <t>2024-01-18 06:00 Thu</t>
         </is>
       </c>
       <c r="B35" s="46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D35" s="44" t="n">
-        <v>11</v>
+        <v>91</v>
+      </c>
+      <c r="D35" s="48" t="n">
+        <v>25</v>
       </c>
       <c r="E35" s="38" t="inlineStr">
         <is>
@@ -2915,31 +2915,31 @@
       </c>
       <c r="F35" s="42" t="inlineStr"/>
       <c r="G35" s="42" t="inlineStr"/>
-      <c r="H35" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I35" s="53" t="inlineStr">
-        <is>
-          <t>17.8</t>
+      <c r="H35" s="57" t="inlineStr">
+        <is>
+          <t>58.6</t>
+        </is>
+      </c>
+      <c r="I35" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 21:00 Wed</t>
-        </is>
-      </c>
-      <c r="B36" s="46" t="n">
-        <v>11</v>
+          <t>2024-01-18 09:00 Thu</t>
+        </is>
+      </c>
+      <c r="B36" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="C36" s="49" t="n">
-        <v>86</v>
-      </c>
-      <c r="D36" s="41" t="n">
-        <v>15</v>
+        <v>81</v>
+      </c>
+      <c r="D36" s="50" t="n">
+        <v>29</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
@@ -2948,31 +2948,31 @@
       </c>
       <c r="F36" s="42" t="inlineStr"/>
       <c r="G36" s="42" t="inlineStr"/>
-      <c r="H36" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I36" s="55" t="inlineStr">
-        <is>
-          <t>80.5</t>
+      <c r="H36" s="56" t="inlineStr">
+        <is>
+          <t>79.8</t>
+        </is>
+      </c>
+      <c r="I36" s="56" t="inlineStr">
+        <is>
+          <t>69.8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 00:00 Thu</t>
-        </is>
-      </c>
-      <c r="B37" s="46" t="n">
-        <v>12</v>
+          <t>2024-01-18 12:00 Thu</t>
+        </is>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>17</v>
       </c>
       <c r="C37" s="49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D37" s="48" t="n">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="D37" s="50" t="n">
+        <v>33</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2981,31 +2981,31 @@
       </c>
       <c r="F37" s="42" t="inlineStr"/>
       <c r="G37" s="42" t="inlineStr"/>
-      <c r="H37" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H37" s="57" t="inlineStr">
+        <is>
+          <t>42.7</t>
         </is>
       </c>
       <c r="I37" s="57" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>37.4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 03:00 Thu</t>
-        </is>
-      </c>
-      <c r="B38" s="46" t="n">
-        <v>12</v>
+          <t>2024-01-18 15:00 Thu</t>
+        </is>
+      </c>
+      <c r="B38" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="C38" s="49" t="n">
-        <v>92</v>
-      </c>
-      <c r="D38" s="48" t="n">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="D38" s="50" t="n">
+        <v>32</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3014,31 +3014,31 @@
       </c>
       <c r="F38" s="42" t="inlineStr"/>
       <c r="G38" s="42" t="inlineStr"/>
-      <c r="H38" s="52" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="I38" s="53" t="inlineStr">
-        <is>
-          <t>11.4</t>
+      <c r="H38" s="42" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="I38" s="56" t="inlineStr">
+        <is>
+          <t>78.6</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 06:00 Thu</t>
-        </is>
-      </c>
-      <c r="B39" s="46" t="n">
-        <v>13</v>
+          <t>2024-01-18 18:00 Thu</t>
+        </is>
+      </c>
+      <c r="B39" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="C39" s="49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D39" s="48" t="n">
-        <v>23</v>
+        <v>91</v>
+      </c>
+      <c r="D39" s="50" t="n">
+        <v>34</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3047,31 +3047,31 @@
       </c>
       <c r="F39" s="42" t="inlineStr"/>
       <c r="G39" s="42" t="inlineStr"/>
-      <c r="H39" s="57" t="inlineStr">
-        <is>
-          <t>35.2</t>
-        </is>
-      </c>
-      <c r="I39" s="57" t="inlineStr">
-        <is>
-          <t>36.6</t>
+      <c r="H39" s="53" t="inlineStr">
+        <is>
+          <t>14.4</t>
+        </is>
+      </c>
+      <c r="I39" s="56" t="inlineStr">
+        <is>
+          <t>70.3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 09:00 Thu</t>
+          <t>2024-01-18 21:00 Thu</t>
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="49" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D40" s="50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
@@ -3080,31 +3080,31 @@
       </c>
       <c r="F40" s="42" t="inlineStr"/>
       <c r="G40" s="42" t="inlineStr"/>
-      <c r="H40" s="57" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="I40" s="56" t="inlineStr">
-        <is>
-          <t>79.7</t>
+      <c r="H40" s="42" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="I40" s="42" t="inlineStr">
+        <is>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 12:00 Thu</t>
+          <t>2024-01-19 00:00 Fri</t>
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" s="49" t="n">
-        <v>81</v>
-      </c>
-      <c r="D41" s="50" t="n">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="D41" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
       </c>
       <c r="F41" s="42" t="inlineStr"/>
       <c r="G41" s="42" t="inlineStr"/>
-      <c r="H41" s="57" t="inlineStr">
-        <is>
-          <t>44.6</t>
-        </is>
-      </c>
-      <c r="I41" s="55" t="inlineStr">
-        <is>
-          <t>87.1</t>
+      <c r="H41" s="42" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I41" s="57" t="inlineStr">
+        <is>
+          <t>36.6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 15:00 Thu</t>
+          <t>2024-01-19 03:00 Fri</t>
         </is>
       </c>
       <c r="B42" s="41" t="n">
         <v>14</v>
       </c>
       <c r="C42" s="49" t="n">
-        <v>90</v>
-      </c>
-      <c r="D42" s="50" t="n">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="D42" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3146,31 +3146,31 @@
       </c>
       <c r="F42" s="42" t="inlineStr"/>
       <c r="G42" s="42" t="inlineStr"/>
-      <c r="H42" s="52" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="I42" s="56" t="inlineStr">
-        <is>
-          <t>69.9</t>
+      <c r="H42" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" s="57" t="inlineStr">
+        <is>
+          <t>59.6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 18:00 Thu</t>
-        </is>
-      </c>
-      <c r="B43" s="41" t="n">
+          <t>2024-01-19 06:00 Fri</t>
+        </is>
+      </c>
+      <c r="B43" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C43" s="49" t="n">
+        <v>87</v>
+      </c>
+      <c r="D43" s="41" t="n">
         <v>14</v>
-      </c>
-      <c r="C43" s="49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D43" s="50" t="n">
-        <v>33</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3179,31 +3179,31 @@
       </c>
       <c r="F43" s="42" t="inlineStr"/>
       <c r="G43" s="42" t="inlineStr"/>
-      <c r="H43" s="52" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="I43" s="56" t="inlineStr">
-        <is>
-          <t>76.9</t>
+      <c r="H43" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" s="57" t="inlineStr">
+        <is>
+          <t>32.4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 21:00 Thu</t>
+          <t>2024-01-19 09:00 Fri</t>
         </is>
       </c>
       <c r="B44" s="41" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C44" s="49" t="n">
-        <v>92</v>
-      </c>
-      <c r="D44" s="50" t="n">
-        <v>29</v>
+        <v>73</v>
+      </c>
+      <c r="D44" s="41" t="n">
+        <v>18</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3212,31 +3212,31 @@
       </c>
       <c r="F44" s="42" t="inlineStr"/>
       <c r="G44" s="42" t="inlineStr"/>
-      <c r="H44" s="53" t="inlineStr">
-        <is>
-          <t>19.1</t>
-        </is>
-      </c>
-      <c r="I44" s="42" t="inlineStr">
-        <is>
-          <t>1.6</t>
+      <c r="H44" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I44" s="57" t="inlineStr">
+        <is>
+          <t>34.3</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2024-01-19 00:00 Fri</t>
-        </is>
-      </c>
-      <c r="B45" s="46" t="n">
-        <v>13</v>
+          <t>2024-01-19 12:00 Fri</t>
+        </is>
+      </c>
+      <c r="B45" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="C45" s="49" t="n">
-        <v>90</v>
-      </c>
-      <c r="D45" s="41" t="n">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="D45" s="48" t="n">
+        <v>21</v>
       </c>
       <c r="E45" s="38" t="inlineStr">
         <is>
@@ -3245,14 +3245,14 @@
       </c>
       <c r="F45" s="42" t="inlineStr"/>
       <c r="G45" s="42" t="inlineStr"/>
-      <c r="H45" s="53" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="I45" s="53" t="inlineStr">
-        <is>
-          <t>15.8</t>
+      <c r="H45" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I45" s="56" t="inlineStr">
+        <is>
+          <t>67.1</t>
         </is>
       </c>
     </row>

--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1807,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 03:00 Sun</t>
-        </is>
-      </c>
-      <c r="B2" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" s="44" t="n">
-        <v>10</v>
+          <t>2024-11-22 15:00 Fri</t>
+        </is>
+      </c>
+      <c r="B2" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" s="41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" s="50" t="n">
+        <v>37</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1826,31 +1826,31 @@
       </c>
       <c r="F2" s="42" t="inlineStr"/>
       <c r="G2" s="42" t="inlineStr"/>
-      <c r="H2" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I2" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H2" s="57" t="inlineStr">
+        <is>
+          <t>38.8</t>
+        </is>
+      </c>
+      <c r="I2" s="57" t="inlineStr">
+        <is>
+          <t>30.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 06:00 Sun</t>
-        </is>
-      </c>
-      <c r="B3" s="60" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="49" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>11</v>
+          <t>2024-11-22 18:00 Fri</t>
+        </is>
+      </c>
+      <c r="B3" s="41" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" s="41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" s="50" t="n">
+        <v>30</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1859,31 +1859,31 @@
       </c>
       <c r="F3" s="42" t="inlineStr"/>
       <c r="G3" s="42" t="inlineStr"/>
-      <c r="H3" s="42" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="I3" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H3" s="56" t="inlineStr">
+        <is>
+          <t>69.4</t>
+        </is>
+      </c>
+      <c r="I3" s="56" t="inlineStr">
+        <is>
+          <t>65.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 09:00 Sun</t>
-        </is>
-      </c>
-      <c r="B4" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" s="41" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>7</v>
+          <t>2024-11-22 21:00 Fri</t>
+        </is>
+      </c>
+      <c r="B4" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="49" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
@@ -1892,9 +1892,9 @@
       </c>
       <c r="F4" s="42" t="inlineStr"/>
       <c r="G4" s="42" t="inlineStr"/>
-      <c r="H4" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H4" s="57" t="inlineStr">
+        <is>
+          <t>32</t>
         </is>
       </c>
       <c r="I4" s="38" t="inlineStr">
@@ -1906,17 +1906,17 @@
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 12:00 Sun</t>
+          <t>2024-11-23 00:00 Sat</t>
         </is>
       </c>
       <c r="B5" s="46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="41" t="n">
-        <v>44</v>
-      </c>
-      <c r="D5" s="44" t="n">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D5" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1925,9 +1925,9 @@
       </c>
       <c r="F5" s="42" t="inlineStr"/>
       <c r="G5" s="42" t="inlineStr"/>
-      <c r="H5" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H5" s="53" t="inlineStr">
+        <is>
+          <t>16.6</t>
         </is>
       </c>
       <c r="I5" s="38" t="inlineStr">
@@ -1939,17 +1939,17 @@
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 15:00 Sun</t>
-        </is>
-      </c>
-      <c r="B6" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="46" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" s="44" t="n">
+          <t>2024-11-23 03:00 Sat</t>
+        </is>
+      </c>
+      <c r="B6" s="46" t="n">
         <v>11</v>
+      </c>
+      <c r="C6" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" s="48" t="n">
+        <v>28</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
       <c r="G6" s="42" t="inlineStr"/>
       <c r="H6" s="57" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I6" s="38" t="inlineStr">
@@ -1972,17 +1972,17 @@
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 18:00 Sun</t>
+          <t>2024-11-23 06:00 Sat</t>
         </is>
       </c>
       <c r="B7" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" s="46" t="n">
-        <v>66</v>
-      </c>
-      <c r="D7" s="41" t="n">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="41" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" s="50" t="n">
+        <v>36</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -1993,29 +1993,29 @@
       <c r="G7" s="42" t="inlineStr"/>
       <c r="H7" s="57" t="inlineStr">
         <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="I7" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>58.6</t>
+        </is>
+      </c>
+      <c r="I7" s="57" t="inlineStr">
+        <is>
+          <t>33.3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2024-01-14 21:00 Sun</t>
-        </is>
-      </c>
-      <c r="B8" s="60" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="49" t="n">
-        <v>73</v>
-      </c>
-      <c r="D8" s="41" t="n">
-        <v>14</v>
+          <t>2024-11-23 09:00 Sat</t>
+        </is>
+      </c>
+      <c r="B8" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" s="58" t="n">
+        <v>39</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2024,31 +2024,31 @@
       </c>
       <c r="F8" s="42" t="inlineStr"/>
       <c r="G8" s="42" t="inlineStr"/>
-      <c r="H8" s="54" t="inlineStr">
-        <is>
-          <t>28.9</t>
-        </is>
-      </c>
-      <c r="I8" s="52" t="inlineStr">
-        <is>
-          <t>8.4</t>
+      <c r="H8" s="42" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I8" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 00:00 Mon</t>
-        </is>
-      </c>
-      <c r="B9" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="49" t="n">
-        <v>77</v>
-      </c>
-      <c r="D9" s="41" t="n">
-        <v>15</v>
+          <t>2024-11-23 12:00 Sat</t>
+        </is>
+      </c>
+      <c r="B9" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" s="50" t="n">
+        <v>35</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2057,31 +2057,31 @@
       </c>
       <c r="F9" s="42" t="inlineStr"/>
       <c r="G9" s="42" t="inlineStr"/>
-      <c r="H9" s="53" t="inlineStr">
-        <is>
-          <t>16.9</t>
-        </is>
-      </c>
-      <c r="I9" s="52" t="inlineStr">
-        <is>
-          <t>6.8</t>
+      <c r="H9" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="I9" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 03:00 Mon</t>
-        </is>
-      </c>
-      <c r="B10" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D10" s="41" t="n">
-        <v>18</v>
+          <t>2024-11-23 15:00 Sat</t>
+        </is>
+      </c>
+      <c r="B10" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="41" t="n">
+        <v>34</v>
+      </c>
+      <c r="D10" s="50" t="n">
+        <v>29</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2090,97 +2090,97 @@
       </c>
       <c r="F10" s="42" t="inlineStr"/>
       <c r="G10" s="42" t="inlineStr"/>
-      <c r="H10" s="53" t="inlineStr">
-        <is>
-          <t>19.9</t>
-        </is>
-      </c>
-      <c r="I10" s="56" t="inlineStr">
-        <is>
-          <t>76.8</t>
+      <c r="H10" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 06:00 Mon</t>
+          <t>2024-11-23 18:00 Sat</t>
         </is>
       </c>
       <c r="B11" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="49" t="n">
-        <v>86</v>
+      <c r="C11" s="41" t="n">
+        <v>39</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F11" s="46" t="inlineStr"/>
+      <c r="F11" s="42" t="inlineStr"/>
       <c r="G11" s="42" t="inlineStr"/>
-      <c r="H11" s="57" t="inlineStr">
-        <is>
-          <t>59.1</t>
-        </is>
-      </c>
-      <c r="I11" s="55" t="inlineStr">
-        <is>
-          <t>88.4</t>
+      <c r="H11" s="42" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="I11" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 09:00 Mon</t>
-        </is>
-      </c>
-      <c r="B12" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="49" t="n">
-        <v>89</v>
-      </c>
-      <c r="D12" s="48" t="n">
-        <v>20</v>
+          <t>2024-11-23 21:00 Sat</t>
+        </is>
+      </c>
+      <c r="B12" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D12" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F12" s="46" t="inlineStr"/>
+      <c r="F12" s="42" t="inlineStr"/>
       <c r="G12" s="42" t="inlineStr"/>
-      <c r="H12" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I12" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H12" s="42" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="I12" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 12:00 Mon</t>
-        </is>
-      </c>
-      <c r="B13" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D13" s="48" t="n">
-        <v>25</v>
+          <t>2024-11-24 00:00 Sun</t>
+        </is>
+      </c>
+      <c r="B13" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="41" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="41" t="n">
+        <v>13</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2189,31 +2189,31 @@
       </c>
       <c r="F13" s="42" t="inlineStr"/>
       <c r="G13" s="42" t="inlineStr"/>
-      <c r="H13" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I13" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H13" s="42" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="I13" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 15:00 Mon</t>
-        </is>
-      </c>
-      <c r="B14" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D14" s="41" t="n">
-        <v>19</v>
+          <t>2024-11-24 03:00 Sun</t>
+        </is>
+      </c>
+      <c r="B14" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D14" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2222,31 +2222,31 @@
       </c>
       <c r="F14" s="42" t="inlineStr"/>
       <c r="G14" s="42" t="inlineStr"/>
-      <c r="H14" s="57" t="inlineStr">
-        <is>
-          <t>31.5</t>
-        </is>
-      </c>
-      <c r="I14" s="57" t="inlineStr">
-        <is>
-          <t>56.9</t>
+      <c r="H14" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 18:00 Mon</t>
+          <t>2024-11-24 06:00 Sun</t>
         </is>
       </c>
       <c r="B15" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="49" t="n">
-        <v>92</v>
-      </c>
-      <c r="D15" s="41" t="n">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="41" t="n">
+        <v>43</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
@@ -2255,31 +2255,31 @@
       </c>
       <c r="F15" s="42" t="inlineStr"/>
       <c r="G15" s="42" t="inlineStr"/>
-      <c r="H15" s="53" t="inlineStr">
-        <is>
-          <t>17.3</t>
-        </is>
-      </c>
-      <c r="I15" s="54" t="inlineStr">
-        <is>
-          <t>28.5</t>
+      <c r="H15" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2024-01-15 21:00 Mon</t>
-        </is>
-      </c>
-      <c r="B16" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="49" t="n">
-        <v>87</v>
+          <t>2024-11-24 09:00 Sun</t>
+        </is>
+      </c>
+      <c r="B16" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" s="41" t="n">
+        <v>33</v>
       </c>
       <c r="D16" s="41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2288,9 +2288,9 @@
       </c>
       <c r="F16" s="42" t="inlineStr"/>
       <c r="G16" s="42" t="inlineStr"/>
-      <c r="H16" s="42" t="inlineStr">
-        <is>
-          <t>3.3</t>
+      <c r="H16" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" s="38" t="inlineStr">
@@ -2302,17 +2302,17 @@
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 00:00 Tue</t>
-        </is>
-      </c>
-      <c r="B17" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" s="49" t="n">
-        <v>89</v>
-      </c>
-      <c r="D17" s="44" t="n">
-        <v>9</v>
+          <t>2024-11-24 12:00 Sun</t>
+        </is>
+      </c>
+      <c r="B17" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" s="41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D17" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2321,9 +2321,9 @@
       </c>
       <c r="F17" s="42" t="inlineStr"/>
       <c r="G17" s="42" t="inlineStr"/>
-      <c r="H17" s="42" t="inlineStr">
-        <is>
-          <t>2.8</t>
+      <c r="H17" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" s="38" t="inlineStr">
@@ -2335,17 +2335,17 @@
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 03:00 Tue</t>
-        </is>
-      </c>
-      <c r="B18" s="60" t="n">
+          <t>2024-11-24 15:00 Sun</t>
+        </is>
+      </c>
+      <c r="B18" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="D18" s="44" t="n">
         <v>10</v>
-      </c>
-      <c r="C18" s="49" t="n">
-        <v>88</v>
-      </c>
-      <c r="D18" s="41" t="n">
-        <v>13</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2368,17 +2368,17 @@
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 06:00 Tue</t>
+          <t>2024-11-24 18:00 Sun</t>
         </is>
       </c>
       <c r="B19" s="60" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="49" t="n">
-        <v>85</v>
+      <c r="C19" s="41" t="n">
+        <v>49</v>
       </c>
       <c r="D19" s="44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2387,9 +2387,9 @@
       </c>
       <c r="F19" s="42" t="inlineStr"/>
       <c r="G19" s="42" t="inlineStr"/>
-      <c r="H19" s="42" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="H19" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" s="38" t="inlineStr">
@@ -2401,17 +2401,17 @@
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 09:00 Tue</t>
-        </is>
-      </c>
-      <c r="B20" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C20" s="46" t="n">
-        <v>68</v>
-      </c>
-      <c r="D20" s="44" t="n">
-        <v>11</v>
+          <t>2024-11-24 21:00 Sun</t>
+        </is>
+      </c>
+      <c r="B20" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" s="41" t="n">
+        <v>51</v>
+      </c>
+      <c r="D20" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2420,9 +2420,9 @@
       </c>
       <c r="F20" s="42" t="inlineStr"/>
       <c r="G20" s="42" t="inlineStr"/>
-      <c r="H20" s="53" t="inlineStr">
-        <is>
-          <t>13.7</t>
+      <c r="H20" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" s="38" t="inlineStr">
@@ -2434,17 +2434,17 @@
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 12:00 Tue</t>
-        </is>
-      </c>
-      <c r="B21" s="41" t="n">
-        <v>15</v>
+          <t>2024-11-25 00:00 Mon</t>
+        </is>
+      </c>
+      <c r="B21" s="60" t="n">
+        <v>8</v>
       </c>
       <c r="C21" s="41" t="n">
-        <v>59</v>
-      </c>
-      <c r="D21" s="41" t="n">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="D21" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E21" s="38" t="inlineStr">
         <is>
@@ -2453,9 +2453,9 @@
       </c>
       <c r="F21" s="42" t="inlineStr"/>
       <c r="G21" s="42" t="inlineStr"/>
-      <c r="H21" s="53" t="inlineStr">
-        <is>
-          <t>19.8</t>
+      <c r="H21" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" s="38" t="inlineStr">
@@ -2467,17 +2467,17 @@
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 15:00 Tue</t>
-        </is>
-      </c>
-      <c r="B22" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C22" s="49" t="n">
-        <v>71</v>
+          <t>2024-11-25 03:00 Mon</t>
+        </is>
+      </c>
+      <c r="B22" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="41" t="n">
+        <v>54</v>
       </c>
       <c r="D22" s="44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2486,9 +2486,9 @@
       </c>
       <c r="F22" s="42" t="inlineStr"/>
       <c r="G22" s="42" t="inlineStr"/>
-      <c r="H22" s="53" t="inlineStr">
-        <is>
-          <t>10.4</t>
+      <c r="H22" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I22" s="38" t="inlineStr">
@@ -2500,14 +2500,14 @@
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 18:00 Tue</t>
-        </is>
-      </c>
-      <c r="B23" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C23" s="49" t="n">
-        <v>86</v>
+          <t>2024-11-25 06:00 Mon</t>
+        </is>
+      </c>
+      <c r="B23" s="60" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" s="41" t="n">
+        <v>56</v>
       </c>
       <c r="D23" s="44" t="n">
         <v>7</v>
@@ -2519,9 +2519,9 @@
       </c>
       <c r="F23" s="42" t="inlineStr"/>
       <c r="G23" s="42" t="inlineStr"/>
-      <c r="H23" s="57" t="inlineStr">
-        <is>
-          <t>39.1</t>
+      <c r="H23" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I23" s="38" t="inlineStr">
@@ -2533,17 +2533,17 @@
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2024-01-16 21:00 Tue</t>
+          <t>2024-11-25 09:00 Mon</t>
         </is>
       </c>
       <c r="B24" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" s="49" t="n">
-        <v>85</v>
-      </c>
-      <c r="D24" s="45" t="n">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C24" s="41" t="n">
+        <v>43</v>
+      </c>
+      <c r="D24" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
@@ -2552,9 +2552,9 @@
       </c>
       <c r="F24" s="42" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H24" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I24" s="38" t="inlineStr">
@@ -2566,17 +2566,17 @@
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 00:00 Wed</t>
-        </is>
-      </c>
-      <c r="B25" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" s="49" t="n">
-        <v>84</v>
-      </c>
-      <c r="D25" s="45" t="n">
-        <v>4</v>
+          <t>2024-11-25 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B25" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C25" s="41" t="n">
+        <v>37</v>
+      </c>
+      <c r="D25" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
@@ -2585,9 +2585,9 @@
       </c>
       <c r="F25" s="42" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H25" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I25" s="38" t="inlineStr">
@@ -2599,17 +2599,17 @@
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 03:00 Wed</t>
+          <t>2024-11-25 15:00 Mon</t>
         </is>
       </c>
       <c r="B26" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="C26" s="49" t="n">
-        <v>75</v>
+      <c r="C26" s="41" t="n">
+        <v>54</v>
       </c>
       <c r="D26" s="44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2618,9 +2618,9 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="55" t="inlineStr">
-        <is>
-          <t>98.6</t>
+      <c r="H26" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I26" s="38" t="inlineStr">
@@ -2632,17 +2632,17 @@
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 06:00 Wed</t>
+          <t>2024-11-25 18:00 Mon</t>
         </is>
       </c>
       <c r="B27" s="60" t="n">
         <v>10</v>
       </c>
-      <c r="C27" s="49" t="n">
-        <v>84</v>
+      <c r="C27" s="46" t="n">
+        <v>64</v>
       </c>
       <c r="D27" s="44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="38" t="inlineStr">
         <is>
@@ -2651,9 +2651,9 @@
       </c>
       <c r="F27" s="42" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="56" t="inlineStr">
-        <is>
-          <t>74.7</t>
+      <c r="H27" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I27" s="38" t="inlineStr">
@@ -2665,17 +2665,17 @@
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 09:00 Wed</t>
-        </is>
-      </c>
-      <c r="B28" s="41" t="n">
-        <v>14</v>
+          <t>2024-11-25 21:00 Mon</t>
+        </is>
+      </c>
+      <c r="B28" s="60" t="n">
+        <v>9</v>
       </c>
       <c r="C28" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="D28" s="45" t="n">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="D28" s="44" t="n">
+        <v>6</v>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
@@ -2684,9 +2684,9 @@
       </c>
       <c r="F28" s="42" t="inlineStr"/>
       <c r="G28" s="42" t="inlineStr"/>
-      <c r="H28" s="54" t="inlineStr">
-        <is>
-          <t>27.6</t>
+      <c r="H28" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" s="38" t="inlineStr">
@@ -2698,17 +2698,17 @@
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 12:00 Wed</t>
-        </is>
-      </c>
-      <c r="B29" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" s="41" t="n">
-        <v>55</v>
-      </c>
-      <c r="D29" s="41" t="n">
-        <v>16</v>
+          <t>2024-11-26 00:00 Tue</t>
+        </is>
+      </c>
+      <c r="B29" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C29" s="49" t="n">
+        <v>73</v>
+      </c>
+      <c r="D29" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
@@ -2717,9 +2717,9 @@
       </c>
       <c r="F29" s="42" t="inlineStr"/>
       <c r="G29" s="42" t="inlineStr"/>
-      <c r="H29" s="53" t="inlineStr">
-        <is>
-          <t>14.1</t>
+      <c r="H29" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I29" s="38" t="inlineStr">
@@ -2731,17 +2731,17 @@
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 15:00 Wed</t>
-        </is>
-      </c>
-      <c r="B30" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C30" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="D30" s="44" t="n">
-        <v>9</v>
+          <t>2024-11-26 03:00 Tue</t>
+        </is>
+      </c>
+      <c r="B30" s="60" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" s="49" t="n">
+        <v>75</v>
+      </c>
+      <c r="D30" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2750,9 +2750,9 @@
       </c>
       <c r="F30" s="42" t="inlineStr"/>
       <c r="G30" s="42" t="inlineStr"/>
-      <c r="H30" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H30" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I30" s="38" t="inlineStr">
@@ -2764,17 +2764,17 @@
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 18:00 Wed</t>
+          <t>2024-11-26 06:00 Tue</t>
         </is>
       </c>
       <c r="B31" s="60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="D31" s="41" t="n">
-        <v>13</v>
+        <v>73</v>
+      </c>
+      <c r="D31" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
@@ -2783,9 +2783,9 @@
       </c>
       <c r="F31" s="42" t="inlineStr"/>
       <c r="G31" s="42" t="inlineStr"/>
-      <c r="H31" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H31" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I31" s="38" t="inlineStr">
@@ -2797,17 +2797,17 @@
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2024-01-17 21:00 Wed</t>
-        </is>
-      </c>
-      <c r="B32" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C32" s="49" t="n">
-        <v>88</v>
-      </c>
-      <c r="D32" s="48" t="n">
-        <v>21</v>
+          <t>2024-11-26 09:00 Tue</t>
+        </is>
+      </c>
+      <c r="B32" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C32" s="41" t="n">
+        <v>45</v>
+      </c>
+      <c r="D32" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
@@ -2830,17 +2830,17 @@
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 00:00 Thu</t>
-        </is>
-      </c>
-      <c r="B33" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C33" s="49" t="n">
-        <v>90</v>
-      </c>
-      <c r="D33" s="48" t="n">
-        <v>24</v>
+          <t>2024-11-26 12:00 Tue</t>
+        </is>
+      </c>
+      <c r="B33" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="D33" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
@@ -2849,64 +2849,64 @@
       </c>
       <c r="F33" s="42" t="inlineStr"/>
       <c r="G33" s="42" t="inlineStr"/>
-      <c r="H33" s="42" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I33" s="53" t="inlineStr">
-        <is>
-          <t>18.8</t>
+      <c r="H33" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I33" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 03:00 Thu</t>
-        </is>
-      </c>
-      <c r="B34" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C34" s="49" t="n">
-        <v>89</v>
-      </c>
-      <c r="D34" s="48" t="n">
-        <v>25</v>
+          <t>2024-11-26 15:00 Tue</t>
+        </is>
+      </c>
+      <c r="B34" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C34" s="41" t="n">
+        <v>57</v>
+      </c>
+      <c r="D34" s="42" t="n">
+        <v>1</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F34" s="46" t="inlineStr"/>
+      <c r="F34" s="42" t="inlineStr"/>
       <c r="G34" s="42" t="inlineStr"/>
-      <c r="H34" s="53" t="inlineStr">
-        <is>
-          <t>17.4</t>
-        </is>
-      </c>
-      <c r="I34" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H34" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I34" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 06:00 Thu</t>
+          <t>2024-11-26 18:00 Tue</t>
         </is>
       </c>
       <c r="B35" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C35" s="49" t="n">
-        <v>91</v>
-      </c>
-      <c r="D35" s="48" t="n">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C35" s="46" t="n">
+        <v>67</v>
+      </c>
+      <c r="D35" s="44" t="n">
+        <v>6</v>
       </c>
       <c r="E35" s="38" t="inlineStr">
         <is>
@@ -2915,31 +2915,31 @@
       </c>
       <c r="F35" s="42" t="inlineStr"/>
       <c r="G35" s="42" t="inlineStr"/>
-      <c r="H35" s="57" t="inlineStr">
-        <is>
-          <t>58.6</t>
-        </is>
-      </c>
-      <c r="I35" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H35" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="I35" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 09:00 Thu</t>
-        </is>
-      </c>
-      <c r="B36" s="41" t="n">
-        <v>15</v>
+          <t>2024-11-26 21:00 Tue</t>
+        </is>
+      </c>
+      <c r="B36" s="46" t="n">
+        <v>11</v>
       </c>
       <c r="C36" s="49" t="n">
-        <v>81</v>
-      </c>
-      <c r="D36" s="50" t="n">
-        <v>29</v>
+        <v>71</v>
+      </c>
+      <c r="D36" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
@@ -2948,31 +2948,31 @@
       </c>
       <c r="F36" s="42" t="inlineStr"/>
       <c r="G36" s="42" t="inlineStr"/>
-      <c r="H36" s="56" t="inlineStr">
-        <is>
-          <t>79.8</t>
-        </is>
-      </c>
-      <c r="I36" s="56" t="inlineStr">
-        <is>
-          <t>69.8</t>
+      <c r="H36" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I36" s="42" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 12:00 Thu</t>
-        </is>
-      </c>
-      <c r="B37" s="41" t="n">
-        <v>17</v>
+          <t>2024-11-27 00:00 Wed</t>
+        </is>
+      </c>
+      <c r="B37" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C37" s="49" t="n">
-        <v>72</v>
-      </c>
-      <c r="D37" s="50" t="n">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="D37" s="42" t="n">
+        <v>1</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2981,31 +2981,31 @@
       </c>
       <c r="F37" s="42" t="inlineStr"/>
       <c r="G37" s="42" t="inlineStr"/>
-      <c r="H37" s="57" t="inlineStr">
-        <is>
-          <t>42.7</t>
-        </is>
-      </c>
-      <c r="I37" s="57" t="inlineStr">
-        <is>
-          <t>37.4</t>
+      <c r="H37" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I37" s="42" t="inlineStr">
+        <is>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 15:00 Thu</t>
-        </is>
-      </c>
-      <c r="B38" s="41" t="n">
-        <v>15</v>
+          <t>2024-11-27 03:00 Wed</t>
+        </is>
+      </c>
+      <c r="B38" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C38" s="49" t="n">
-        <v>86</v>
-      </c>
-      <c r="D38" s="50" t="n">
-        <v>32</v>
+        <v>83</v>
+      </c>
+      <c r="D38" s="42" t="n">
+        <v>1</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3016,29 +3016,29 @@
       <c r="G38" s="42" t="inlineStr"/>
       <c r="H38" s="42" t="inlineStr">
         <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="I38" s="56" t="inlineStr">
-        <is>
-          <t>78.6</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I38" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 18:00 Thu</t>
-        </is>
-      </c>
-      <c r="B39" s="41" t="n">
-        <v>14</v>
+          <t>2024-11-27 06:00 Wed</t>
+        </is>
+      </c>
+      <c r="B39" s="60" t="n">
+        <v>10</v>
       </c>
       <c r="C39" s="49" t="n">
-        <v>91</v>
-      </c>
-      <c r="D39" s="50" t="n">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="D39" s="42" t="n">
+        <v>1</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3047,31 +3047,31 @@
       </c>
       <c r="F39" s="42" t="inlineStr"/>
       <c r="G39" s="42" t="inlineStr"/>
-      <c r="H39" s="53" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="I39" s="56" t="inlineStr">
-        <is>
-          <t>70.3</t>
+      <c r="H39" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I39" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2024-01-18 21:00 Thu</t>
+          <t>2024-11-27 09:00 Wed</t>
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C40" s="49" t="n">
-        <v>88</v>
-      </c>
-      <c r="D40" s="50" t="n">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="46" t="n">
+        <v>61</v>
+      </c>
+      <c r="D40" s="45" t="n">
+        <v>3</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
@@ -3082,29 +3082,29 @@
       <c r="G40" s="42" t="inlineStr"/>
       <c r="H40" s="42" t="inlineStr">
         <is>
-          <t>0.3</t>
-        </is>
-      </c>
-      <c r="I40" s="42" t="inlineStr">
-        <is>
-          <t>4.2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I40" s="52" t="inlineStr">
+        <is>
+          <t>6.5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2024-01-19 00:00 Fri</t>
+          <t>2024-11-27 12:00 Wed</t>
         </is>
       </c>
       <c r="B41" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C41" s="49" t="n">
-        <v>82</v>
-      </c>
-      <c r="D41" s="48" t="n">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C41" s="41" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>2</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3115,29 +3115,29 @@
       <c r="G41" s="42" t="inlineStr"/>
       <c r="H41" s="42" t="inlineStr">
         <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I41" s="57" t="inlineStr">
-        <is>
-          <t>36.6</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I41" s="52" t="inlineStr">
+        <is>
+          <t>8.3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2024-01-19 03:00 Fri</t>
+          <t>2024-11-27 15:00 Wed</t>
         </is>
       </c>
       <c r="B42" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C42" s="49" t="n">
-        <v>79</v>
-      </c>
-      <c r="D42" s="48" t="n">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="C42" s="46" t="n">
+        <v>67</v>
+      </c>
+      <c r="D42" s="44" t="n">
+        <v>6</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3146,31 +3146,31 @@
       </c>
       <c r="F42" s="42" t="inlineStr"/>
       <c r="G42" s="42" t="inlineStr"/>
-      <c r="H42" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I42" s="57" t="inlineStr">
-        <is>
-          <t>59.6</t>
+      <c r="H42" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I42" s="52" t="inlineStr">
+        <is>
+          <t>6.2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2024-01-19 06:00 Fri</t>
+          <t>2024-11-27 18:00 Wed</t>
         </is>
       </c>
       <c r="B43" s="46" t="n">
         <v>13</v>
       </c>
       <c r="C43" s="49" t="n">
-        <v>87</v>
-      </c>
-      <c r="D43" s="41" t="n">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="D43" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3179,31 +3179,31 @@
       </c>
       <c r="F43" s="42" t="inlineStr"/>
       <c r="G43" s="42" t="inlineStr"/>
-      <c r="H43" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I43" s="57" t="inlineStr">
-        <is>
-          <t>32.4</t>
+      <c r="H43" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I43" s="52" t="inlineStr">
+        <is>
+          <t>5.6</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2024-01-19 09:00 Fri</t>
-        </is>
-      </c>
-      <c r="B44" s="41" t="n">
-        <v>16</v>
+          <t>2024-11-27 21:00 Wed</t>
+        </is>
+      </c>
+      <c r="B44" s="46" t="n">
+        <v>13</v>
       </c>
       <c r="C44" s="49" t="n">
-        <v>73</v>
-      </c>
-      <c r="D44" s="41" t="n">
-        <v>18</v>
+        <v>84</v>
+      </c>
+      <c r="D44" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3212,31 +3212,31 @@
       </c>
       <c r="F44" s="42" t="inlineStr"/>
       <c r="G44" s="42" t="inlineStr"/>
-      <c r="H44" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I44" s="57" t="inlineStr">
-        <is>
-          <t>34.3</t>
+      <c r="H44" s="52" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="I44" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2024-01-19 12:00 Fri</t>
-        </is>
-      </c>
-      <c r="B45" s="41" t="n">
-        <v>16</v>
+          <t>2024-11-28 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B45" s="46" t="n">
+        <v>13</v>
       </c>
       <c r="C45" s="49" t="n">
-        <v>78</v>
-      </c>
-      <c r="D45" s="48" t="n">
-        <v>21</v>
+        <v>90</v>
+      </c>
+      <c r="D45" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E45" s="38" t="inlineStr">
         <is>
@@ -3245,14 +3245,14 @@
       </c>
       <c r="F45" s="42" t="inlineStr"/>
       <c r="G45" s="42" t="inlineStr"/>
-      <c r="H45" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I45" s="56" t="inlineStr">
-        <is>
-          <t>67.1</t>
+      <c r="H45" s="54" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="I45" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -382,13 +382,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -407,13 +407,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -432,13 +432,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -457,13 +457,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -482,13 +482,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -507,13 +507,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -532,13 +532,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -557,13 +557,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -582,13 +582,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -607,13 +607,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -632,13 +632,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -657,13 +657,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -682,13 +682,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -707,13 +707,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -732,13 +732,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -757,13 +757,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -782,13 +782,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -807,13 +807,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -832,13 +832,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -857,13 +857,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -882,13 +882,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -907,13 +907,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -932,13 +932,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -957,13 +957,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -982,13 +982,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1007,13 +1007,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1032,13 +1032,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1057,13 +1057,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1082,13 +1082,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1107,13 +1107,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1132,13 +1132,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1157,13 +1157,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1182,13 +1182,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1207,13 +1207,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1232,13 +1232,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1257,13 +1257,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1282,13 +1282,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1307,13 +1307,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1332,13 +1332,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1357,13 +1357,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1382,13 +1382,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1407,13 +1407,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1432,13 +1432,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1457,13 +1457,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1733,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1807,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2024-11-22 15:00 Fri</t>
+          <t>2025-01-26 09:00 dom</t>
         </is>
       </c>
       <c r="B2" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" s="41" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" s="50" t="n">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="49" t="n">
+        <v>77</v>
+      </c>
+      <c r="D2" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1826,31 +1826,31 @@
       </c>
       <c r="F2" s="42" t="inlineStr"/>
       <c r="G2" s="42" t="inlineStr"/>
-      <c r="H2" s="57" t="inlineStr">
-        <is>
-          <t>38.8</t>
-        </is>
-      </c>
-      <c r="I2" s="57" t="inlineStr">
-        <is>
-          <t>30.8</t>
+      <c r="H2" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I2" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2024-11-22 18:00 Fri</t>
+          <t>2025-01-26 12:00 dom</t>
         </is>
       </c>
       <c r="B3" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C3" s="41" t="n">
-        <v>60</v>
-      </c>
-      <c r="D3" s="50" t="n">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="46" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" s="48" t="n">
+        <v>27</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1859,31 +1859,31 @@
       </c>
       <c r="F3" s="42" t="inlineStr"/>
       <c r="G3" s="42" t="inlineStr"/>
-      <c r="H3" s="56" t="inlineStr">
-        <is>
-          <t>69.4</t>
-        </is>
-      </c>
-      <c r="I3" s="56" t="inlineStr">
-        <is>
-          <t>65.4</t>
+      <c r="H3" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2024-11-22 21:00 Fri</t>
-        </is>
-      </c>
-      <c r="B4" s="46" t="n">
-        <v>12</v>
+          <t>2025-01-26 15:00 dom</t>
+        </is>
+      </c>
+      <c r="B4" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="C4" s="49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D4" s="50" t="n">
-        <v>31</v>
+        <v>82</v>
+      </c>
+      <c r="D4" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
@@ -1892,31 +1892,31 @@
       </c>
       <c r="F4" s="42" t="inlineStr"/>
       <c r="G4" s="42" t="inlineStr"/>
-      <c r="H4" s="57" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="I4" s="38" t="inlineStr">
+      <c r="H4" s="38" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 00:00 Sat</t>
+          <t>2025-01-26 18:00 dom</t>
         </is>
       </c>
       <c r="B5" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" s="41" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" s="50" t="n">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="49" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1925,31 +1925,31 @@
       </c>
       <c r="F5" s="42" t="inlineStr"/>
       <c r="G5" s="42" t="inlineStr"/>
-      <c r="H5" s="53" t="inlineStr">
-        <is>
-          <t>16.6</t>
-        </is>
-      </c>
-      <c r="I5" s="38" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="55" t="inlineStr">
+        <is>
+          <t>90.3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 03:00 Sat</t>
+          <t>2025-01-26 21:00 dom</t>
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" s="41" t="n">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="49" t="n">
+        <v>91</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1958,31 +1958,31 @@
       </c>
       <c r="F6" s="42" t="inlineStr"/>
       <c r="G6" s="42" t="inlineStr"/>
-      <c r="H6" s="57" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I6" s="38" t="inlineStr">
+      <c r="H6" s="38" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="I6" s="57" t="inlineStr">
+        <is>
+          <t>35.3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 06:00 Sat</t>
-        </is>
-      </c>
-      <c r="B7" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" s="41" t="n">
-        <v>37</v>
-      </c>
-      <c r="D7" s="50" t="n">
-        <v>36</v>
+          <t>2025-01-27 00:00 lun</t>
+        </is>
+      </c>
+      <c r="B7" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" s="49" t="n">
+        <v>94</v>
+      </c>
+      <c r="D7" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -1991,31 +1991,31 @@
       </c>
       <c r="F7" s="42" t="inlineStr"/>
       <c r="G7" s="42" t="inlineStr"/>
-      <c r="H7" s="57" t="inlineStr">
-        <is>
-          <t>58.6</t>
-        </is>
-      </c>
-      <c r="I7" s="57" t="inlineStr">
-        <is>
-          <t>33.3</t>
+      <c r="H7" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="53" t="inlineStr">
+        <is>
+          <t>17.6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 09:00 Sat</t>
+          <t>2025-01-27 03:00 lun</t>
         </is>
       </c>
       <c r="B8" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" s="49" t="n">
+        <v>95</v>
+      </c>
+      <c r="D8" s="41" t="n">
         <v>12</v>
-      </c>
-      <c r="C8" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="D8" s="58" t="n">
-        <v>39</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2024,9 +2024,9 @@
       </c>
       <c r="F8" s="42" t="inlineStr"/>
       <c r="G8" s="42" t="inlineStr"/>
-      <c r="H8" s="42" t="inlineStr">
-        <is>
-          <t>0.4</t>
+      <c r="H8" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I8" s="38" t="inlineStr">
@@ -2038,17 +2038,17 @@
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 12:00 Sat</t>
+          <t>2025-01-27 06:00 lun</t>
         </is>
       </c>
       <c r="B9" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="D9" s="50" t="n">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="49" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2057,9 +2057,9 @@
       </c>
       <c r="F9" s="42" t="inlineStr"/>
       <c r="G9" s="42" t="inlineStr"/>
-      <c r="H9" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
+      <c r="H9" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" s="38" t="inlineStr">
@@ -2071,17 +2071,17 @@
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 15:00 Sat</t>
-        </is>
-      </c>
-      <c r="B10" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" s="41" t="n">
-        <v>34</v>
-      </c>
-      <c r="D10" s="50" t="n">
-        <v>29</v>
+          <t>2025-01-27 09:00 lun</t>
+        </is>
+      </c>
+      <c r="B10" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="49" t="n">
+        <v>76</v>
+      </c>
+      <c r="D10" s="41" t="n">
+        <v>18</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
       <c r="G10" s="42" t="inlineStr"/>
       <c r="H10" s="42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="I10" s="38" t="inlineStr">
@@ -2104,17 +2104,17 @@
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 18:00 Sat</t>
-        </is>
-      </c>
-      <c r="B11" s="60" t="n">
-        <v>10</v>
+          <t>2025-01-27 12:00 lun</t>
+        </is>
+      </c>
+      <c r="B11" s="41" t="n">
+        <v>17</v>
       </c>
       <c r="C11" s="41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D11" s="48" t="n">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="41" t="n">
+        <v>18</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
       <c r="G11" s="42" t="inlineStr"/>
       <c r="H11" s="42" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="I11" s="38" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2024-11-23 21:00 Sat</t>
-        </is>
-      </c>
-      <c r="B12" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D12" s="41" t="n">
-        <v>14</v>
+          <t>2025-01-27 15:00 lun</t>
+        </is>
+      </c>
+      <c r="B12" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" s="46" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
@@ -2156,9 +2156,9 @@
       </c>
       <c r="F12" s="42" t="inlineStr"/>
       <c r="G12" s="42" t="inlineStr"/>
-      <c r="H12" s="42" t="inlineStr">
-        <is>
-          <t>1.6</t>
+      <c r="H12" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I12" s="38" t="inlineStr">
@@ -2170,17 +2170,17 @@
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 00:00 Sun</t>
-        </is>
-      </c>
-      <c r="B13" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="41" t="n">
-        <v>38</v>
+          <t>2025-01-27 18:00 lun</t>
+        </is>
+      </c>
+      <c r="B13" s="46" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="49" t="n">
+        <v>95</v>
       </c>
       <c r="D13" s="41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2189,9 +2189,9 @@
       </c>
       <c r="F13" s="42" t="inlineStr"/>
       <c r="G13" s="42" t="inlineStr"/>
-      <c r="H13" s="42" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="H13" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I13" s="38" t="inlineStr">
@@ -2203,17 +2203,17 @@
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 03:00 Sun</t>
-        </is>
-      </c>
-      <c r="B14" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D14" s="44" t="n">
+          <t>2025-01-27 21:00 lun</t>
+        </is>
+      </c>
+      <c r="B14" s="46" t="n">
         <v>11</v>
+      </c>
+      <c r="C14" s="49" t="n">
+        <v>88</v>
+      </c>
+      <c r="D14" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2222,9 +2222,9 @@
       </c>
       <c r="F14" s="42" t="inlineStr"/>
       <c r="G14" s="42" t="inlineStr"/>
-      <c r="H14" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H14" s="42" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
       <c r="I14" s="38" t="inlineStr">
@@ -2236,17 +2236,17 @@
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 06:00 Sun</t>
-        </is>
-      </c>
-      <c r="B15" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" s="41" t="n">
-        <v>43</v>
-      </c>
-      <c r="D15" s="44" t="n">
+          <t>2025-01-28 00:00 mar</t>
+        </is>
+      </c>
+      <c r="B15" s="46" t="n">
         <v>11</v>
+      </c>
+      <c r="C15" s="49" t="n">
+        <v>91</v>
+      </c>
+      <c r="D15" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
@@ -2255,31 +2255,31 @@
       </c>
       <c r="F15" s="42" t="inlineStr"/>
       <c r="G15" s="42" t="inlineStr"/>
-      <c r="H15" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H15" s="42" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I15" s="42" t="inlineStr">
+        <is>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 09:00 Sun</t>
+          <t>2025-01-28 03:00 mar</t>
         </is>
       </c>
       <c r="B16" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C16" s="41" t="n">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="49" t="n">
+        <v>89</v>
       </c>
       <c r="D16" s="41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2293,26 +2293,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I16" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I16" s="54" t="inlineStr">
+        <is>
+          <t>23.1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 12:00 Sun</t>
-        </is>
-      </c>
-      <c r="B17" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" s="41" t="n">
-        <v>31</v>
-      </c>
-      <c r="D17" s="41" t="n">
-        <v>15</v>
+          <t>2025-01-28 06:00 mar</t>
+        </is>
+      </c>
+      <c r="B17" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" s="49" t="n">
+        <v>87</v>
+      </c>
+      <c r="D17" s="48" t="n">
+        <v>23</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2326,26 +2326,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I17" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I17" s="53" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 15:00 Sun</t>
-        </is>
-      </c>
-      <c r="B18" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="D18" s="44" t="n">
-        <v>10</v>
+          <t>2025-01-28 09:00 mar</t>
+        </is>
+      </c>
+      <c r="B18" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" s="49" t="n">
+        <v>74</v>
+      </c>
+      <c r="D18" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2354,9 +2354,9 @@
       </c>
       <c r="F18" s="42" t="inlineStr"/>
       <c r="G18" s="42" t="inlineStr"/>
-      <c r="H18" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H18" s="42" t="inlineStr">
+        <is>
+          <t>0.1</t>
         </is>
       </c>
       <c r="I18" s="38" t="inlineStr">
@@ -2368,17 +2368,17 @@
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 18:00 Sun</t>
-        </is>
-      </c>
-      <c r="B19" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="41" t="n">
-        <v>49</v>
-      </c>
-      <c r="D19" s="44" t="n">
-        <v>6</v>
+          <t>2025-01-28 12:00 mar</t>
+        </is>
+      </c>
+      <c r="B19" s="41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" s="46" t="n">
+        <v>70</v>
+      </c>
+      <c r="D19" s="50" t="n">
+        <v>33</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2387,31 +2387,31 @@
       </c>
       <c r="F19" s="42" t="inlineStr"/>
       <c r="G19" s="42" t="inlineStr"/>
-      <c r="H19" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I19" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H19" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="I19" s="42" t="inlineStr">
+        <is>
+          <t>3.9</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2024-11-24 21:00 Sun</t>
-        </is>
-      </c>
-      <c r="B20" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="41" t="n">
-        <v>51</v>
-      </c>
-      <c r="D20" s="45" t="n">
-        <v>5</v>
+          <t>2025-01-28 15:00 mar</t>
+        </is>
+      </c>
+      <c r="B20" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D20" s="48" t="n">
+        <v>28</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2420,31 +2420,31 @@
       </c>
       <c r="F20" s="42" t="inlineStr"/>
       <c r="G20" s="42" t="inlineStr"/>
-      <c r="H20" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I20" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H20" s="53" t="inlineStr">
+        <is>
+          <t>14.6</t>
+        </is>
+      </c>
+      <c r="I20" s="55" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 00:00 Mon</t>
-        </is>
-      </c>
-      <c r="B21" s="60" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" s="41" t="n">
-        <v>53</v>
-      </c>
-      <c r="D21" s="44" t="n">
-        <v>7</v>
+          <t>2025-01-28 18:00 mar</t>
+        </is>
+      </c>
+      <c r="B21" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" s="49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D21" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E21" s="38" t="inlineStr">
         <is>
@@ -2453,31 +2453,31 @@
       </c>
       <c r="F21" s="42" t="inlineStr"/>
       <c r="G21" s="42" t="inlineStr"/>
-      <c r="H21" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I21" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H21" s="54" t="inlineStr">
+        <is>
+          <t>26.4</t>
+        </is>
+      </c>
+      <c r="I21" s="55" t="inlineStr">
+        <is>
+          <t>95.5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 03:00 Mon</t>
-        </is>
-      </c>
-      <c r="B22" s="60" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" s="41" t="n">
-        <v>54</v>
-      </c>
-      <c r="D22" s="44" t="n">
-        <v>7</v>
+          <t>2025-01-28 21:00 mar</t>
+        </is>
+      </c>
+      <c r="B22" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" s="49" t="n">
+        <v>94</v>
+      </c>
+      <c r="D22" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2486,31 +2486,31 @@
       </c>
       <c r="F22" s="42" t="inlineStr"/>
       <c r="G22" s="42" t="inlineStr"/>
-      <c r="H22" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I22" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H22" s="52" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="I22" s="54" t="inlineStr">
+        <is>
+          <t>24.7</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 06:00 Mon</t>
-        </is>
-      </c>
-      <c r="B23" s="60" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D23" s="44" t="n">
-        <v>7</v>
+          <t>2025-01-29 00:00 mer</t>
+        </is>
+      </c>
+      <c r="B23" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="49" t="n">
+        <v>96</v>
+      </c>
+      <c r="D23" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E23" s="38" t="inlineStr">
         <is>
@@ -2519,97 +2519,97 @@
       </c>
       <c r="F23" s="42" t="inlineStr"/>
       <c r="G23" s="42" t="inlineStr"/>
-      <c r="H23" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I23" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H23" s="52" t="inlineStr">
+        <is>
+          <t>6.7</t>
+        </is>
+      </c>
+      <c r="I23" s="53" t="inlineStr">
+        <is>
+          <t>21.7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 09:00 Mon</t>
+          <t>2025-01-29 03:00 mer</t>
         </is>
       </c>
       <c r="B24" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="C24" s="41" t="n">
-        <v>43</v>
-      </c>
-      <c r="D24" s="44" t="n">
-        <v>10</v>
+      <c r="C24" s="49" t="n">
+        <v>94</v>
+      </c>
+      <c r="D24" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F24" s="42" t="inlineStr"/>
+      <c r="F24" s="46" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H24" s="42" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="I24" s="54" t="inlineStr">
+        <is>
+          <t>22.3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 12:00 Mon</t>
-        </is>
-      </c>
-      <c r="B25" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C25" s="41" t="n">
-        <v>37</v>
-      </c>
-      <c r="D25" s="41" t="n">
-        <v>15</v>
+          <t>2025-01-29 06:00 mer</t>
+        </is>
+      </c>
+      <c r="B25" s="46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" s="49" t="n">
+        <v>94</v>
+      </c>
+      <c r="D25" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F25" s="42" t="inlineStr"/>
+      <c r="F25" s="46" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I25" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H25" s="52" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="I25" s="57" t="inlineStr">
+        <is>
+          <t>35.6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 15:00 Mon</t>
-        </is>
-      </c>
-      <c r="B26" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C26" s="41" t="n">
-        <v>54</v>
-      </c>
-      <c r="D26" s="44" t="n">
-        <v>11</v>
+          <t>2025-01-29 09:00 mer</t>
+        </is>
+      </c>
+      <c r="B26" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="49" t="n">
+        <v>78</v>
+      </c>
+      <c r="D26" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2618,130 +2618,130 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I26" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H26" s="56" t="inlineStr">
+        <is>
+          <t>68.5</t>
+        </is>
+      </c>
+      <c r="I26" s="52" t="inlineStr">
+        <is>
+          <t>6.3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 18:00 Mon</t>
-        </is>
-      </c>
-      <c r="B27" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C27" s="46" t="n">
-        <v>64</v>
-      </c>
-      <c r="D27" s="44" t="n">
-        <v>8</v>
+          <t>2025-01-29 12:00 mer</t>
+        </is>
+      </c>
+      <c r="B27" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" s="49" t="n">
+        <v>79</v>
+      </c>
+      <c r="D27" s="48" t="n">
+        <v>25</v>
       </c>
       <c r="E27" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F27" s="42" t="inlineStr"/>
+      <c r="F27" s="46" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I27" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H27" s="56" t="inlineStr">
+        <is>
+          <t>62.8</t>
+        </is>
+      </c>
+      <c r="I27" s="57" t="inlineStr">
+        <is>
+          <t>30.3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2024-11-25 21:00 Mon</t>
-        </is>
-      </c>
-      <c r="B28" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C28" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="D28" s="44" t="n">
-        <v>6</v>
+          <t>2025-01-29 15:00 mer</t>
+        </is>
+      </c>
+      <c r="B28" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" s="49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D28" s="50" t="n">
+        <v>30</v>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F28" s="42" t="inlineStr"/>
+      <c r="F28" s="46" t="inlineStr"/>
       <c r="G28" s="42" t="inlineStr"/>
-      <c r="H28" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I28" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H28" s="55" t="inlineStr">
+        <is>
+          <t>89.6</t>
+        </is>
+      </c>
+      <c r="I28" s="56" t="inlineStr">
+        <is>
+          <t>77</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 00:00 Tue</t>
-        </is>
-      </c>
-      <c r="B29" s="60" t="n">
-        <v>8</v>
+          <t>2025-01-29 18:00 mer</t>
+        </is>
+      </c>
+      <c r="B29" s="46" t="n">
+        <v>13</v>
       </c>
       <c r="C29" s="49" t="n">
-        <v>73</v>
-      </c>
-      <c r="D29" s="45" t="n">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="D29" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F29" s="42" t="inlineStr"/>
+      <c r="F29" s="46" t="inlineStr"/>
       <c r="G29" s="42" t="inlineStr"/>
-      <c r="H29" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I29" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H29" s="55" t="inlineStr">
+        <is>
+          <t>90.8</t>
+        </is>
+      </c>
+      <c r="I29" s="55" t="inlineStr">
+        <is>
+          <t>87.6</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 03:00 Tue</t>
-        </is>
-      </c>
-      <c r="B30" s="60" t="n">
-        <v>8</v>
+          <t>2025-01-29 21:00 mer</t>
+        </is>
+      </c>
+      <c r="B30" s="46" t="n">
+        <v>12</v>
       </c>
       <c r="C30" s="49" t="n">
-        <v>75</v>
-      </c>
-      <c r="D30" s="45" t="n">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="D30" s="50" t="n">
+        <v>29</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2750,219 +2750,219 @@
       </c>
       <c r="F30" s="42" t="inlineStr"/>
       <c r="G30" s="42" t="inlineStr"/>
-      <c r="H30" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H30" s="55" t="inlineStr">
+        <is>
+          <t>98.4</t>
+        </is>
+      </c>
+      <c r="I30" s="56" t="inlineStr">
+        <is>
+          <t>71.1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 06:00 Tue</t>
-        </is>
-      </c>
-      <c r="B31" s="60" t="n">
-        <v>8</v>
+          <t>2025-01-30 00:00 gio</t>
+        </is>
+      </c>
+      <c r="B31" s="46" t="n">
+        <v>11</v>
       </c>
       <c r="C31" s="49" t="n">
-        <v>73</v>
-      </c>
-      <c r="D31" s="45" t="n">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="D31" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F31" s="42" t="inlineStr"/>
+      <c r="F31" s="46" t="inlineStr"/>
       <c r="G31" s="42" t="inlineStr"/>
-      <c r="H31" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I31" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H31" s="57" t="inlineStr">
+        <is>
+          <t>54.6</t>
+        </is>
+      </c>
+      <c r="I31" s="57" t="inlineStr">
+        <is>
+          <t>35.6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 09:00 Tue</t>
-        </is>
-      </c>
-      <c r="B32" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C32" s="41" t="n">
-        <v>45</v>
-      </c>
-      <c r="D32" s="45" t="n">
-        <v>4</v>
+          <t>2025-01-30 03:00 gio</t>
+        </is>
+      </c>
+      <c r="B32" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="49" t="n">
+        <v>93</v>
+      </c>
+      <c r="D32" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F32" s="42" t="inlineStr"/>
+      <c r="F32" s="46" t="inlineStr"/>
       <c r="G32" s="42" t="inlineStr"/>
-      <c r="H32" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I32" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H32" s="54" t="inlineStr">
+        <is>
+          <t>26.7</t>
+        </is>
+      </c>
+      <c r="I32" s="56" t="inlineStr">
+        <is>
+          <t>66.3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 12:00 Tue</t>
-        </is>
-      </c>
-      <c r="B33" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="C33" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="D33" s="45" t="n">
-        <v>4</v>
+          <t>2025-01-30 06:00 gio</t>
+        </is>
+      </c>
+      <c r="B33" s="60" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="49" t="n">
+        <v>92</v>
+      </c>
+      <c r="D33" s="41" t="n">
+        <v>17</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F33" s="42" t="inlineStr"/>
+      <c r="F33" s="46" t="inlineStr"/>
       <c r="G33" s="42" t="inlineStr"/>
-      <c r="H33" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I33" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H33" s="56" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
+      <c r="I33" s="55" t="inlineStr">
+        <is>
+          <t>83.1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 15:00 Tue</t>
-        </is>
-      </c>
-      <c r="B34" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C34" s="41" t="n">
-        <v>57</v>
-      </c>
-      <c r="D34" s="42" t="n">
-        <v>1</v>
+          <t>2025-01-30 09:00 gio</t>
+        </is>
+      </c>
+      <c r="B34" s="46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" s="49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D34" s="48" t="n">
+        <v>25</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F34" s="42" t="inlineStr"/>
+      <c r="F34" s="46" t="inlineStr"/>
       <c r="G34" s="42" t="inlineStr"/>
-      <c r="H34" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I34" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H34" s="55" t="inlineStr">
+        <is>
+          <t>99.6</t>
+        </is>
+      </c>
+      <c r="I34" s="54" t="inlineStr">
+        <is>
+          <t>29.2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 18:00 Tue</t>
+          <t>2025-01-30 12:00 gio</t>
         </is>
       </c>
       <c r="B35" s="46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="D35" s="44" t="n">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D35" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E35" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F35" s="42" t="inlineStr"/>
+      <c r="F35" s="46" t="inlineStr"/>
       <c r="G35" s="42" t="inlineStr"/>
-      <c r="H35" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="I35" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H35" s="55" t="inlineStr">
+        <is>
+          <t>82.1</t>
+        </is>
+      </c>
+      <c r="I35" s="53" t="inlineStr">
+        <is>
+          <t>14.6</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2024-11-26 21:00 Tue</t>
+          <t>2025-01-30 15:00 gio</t>
         </is>
       </c>
       <c r="B36" s="46" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" s="49" t="n">
-        <v>71</v>
-      </c>
-      <c r="D36" s="45" t="n">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="D36" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F36" s="42" t="inlineStr"/>
+      <c r="F36" s="46" t="inlineStr"/>
       <c r="G36" s="42" t="inlineStr"/>
-      <c r="H36" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I36" s="42" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H36" s="55" t="inlineStr">
+        <is>
+          <t>82.3</t>
+        </is>
+      </c>
+      <c r="I36" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 00:00 Wed</t>
+          <t>2025-01-30 18:00 gio</t>
         </is>
       </c>
       <c r="B37" s="60" t="n">
@@ -2971,8 +2971,8 @@
       <c r="C37" s="49" t="n">
         <v>78</v>
       </c>
-      <c r="D37" s="42" t="n">
-        <v>1</v>
+      <c r="D37" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2981,31 +2981,31 @@
       </c>
       <c r="F37" s="42" t="inlineStr"/>
       <c r="G37" s="42" t="inlineStr"/>
-      <c r="H37" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I37" s="42" t="inlineStr">
-        <is>
-          <t>3.4</t>
+      <c r="H37" s="57" t="inlineStr">
+        <is>
+          <t>53.2</t>
+        </is>
+      </c>
+      <c r="I37" s="53" t="inlineStr">
+        <is>
+          <t>16.4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 03:00 Wed</t>
+          <t>2025-01-30 21:00 gio</t>
         </is>
       </c>
       <c r="B38" s="60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D38" s="42" t="n">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D38" s="44" t="n">
+        <v>8</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3016,29 +3016,29 @@
       <c r="G38" s="42" t="inlineStr"/>
       <c r="H38" s="42" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I38" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="I38" s="57" t="inlineStr">
+        <is>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 06:00 Wed</t>
+          <t>2025-01-31 00:00 ven</t>
         </is>
       </c>
       <c r="B39" s="60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D39" s="42" t="n">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="D39" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3049,29 +3049,29 @@
       <c r="G39" s="42" t="inlineStr"/>
       <c r="H39" s="42" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I39" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="I39" s="57" t="inlineStr">
+        <is>
+          <t>33.3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 09:00 Wed</t>
-        </is>
-      </c>
-      <c r="B40" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C40" s="46" t="n">
-        <v>61</v>
-      </c>
-      <c r="D40" s="45" t="n">
-        <v>3</v>
+          <t>2025-01-31 03:00 ven</t>
+        </is>
+      </c>
+      <c r="B40" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" s="49" t="n">
+        <v>84</v>
+      </c>
+      <c r="D40" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
@@ -3080,31 +3080,31 @@
       </c>
       <c r="F40" s="42" t="inlineStr"/>
       <c r="G40" s="42" t="inlineStr"/>
-      <c r="H40" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I40" s="52" t="inlineStr">
-        <is>
-          <t>6.5</t>
+      <c r="H40" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" s="54" t="inlineStr">
+        <is>
+          <t>28.3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 12:00 Wed</t>
-        </is>
-      </c>
-      <c r="B41" s="41" t="n">
-        <v>18</v>
-      </c>
-      <c r="C41" s="41" t="n">
-        <v>54</v>
-      </c>
-      <c r="D41" s="45" t="n">
-        <v>2</v>
+          <t>2025-01-31 06:00 ven</t>
+        </is>
+      </c>
+      <c r="B41" s="60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" s="49" t="n">
+        <v>86</v>
+      </c>
+      <c r="D41" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
       </c>
       <c r="F41" s="42" t="inlineStr"/>
       <c r="G41" s="42" t="inlineStr"/>
-      <c r="H41" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I41" s="52" t="inlineStr">
-        <is>
-          <t>8.3</t>
+      <c r="H41" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I41" s="54" t="inlineStr">
+        <is>
+          <t>23.9</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 15:00 Wed</t>
-        </is>
-      </c>
-      <c r="B42" s="41" t="n">
-        <v>16</v>
+          <t>2025-01-31 09:00 ven</t>
+        </is>
+      </c>
+      <c r="B42" s="46" t="n">
+        <v>13</v>
       </c>
       <c r="C42" s="46" t="n">
         <v>67</v>
       </c>
-      <c r="D42" s="44" t="n">
-        <v>6</v>
+      <c r="D42" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3146,31 +3146,31 @@
       </c>
       <c r="F42" s="42" t="inlineStr"/>
       <c r="G42" s="42" t="inlineStr"/>
-      <c r="H42" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I42" s="52" t="inlineStr">
-        <is>
-          <t>6.2</t>
+      <c r="H42" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I42" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 18:00 Wed</t>
-        </is>
-      </c>
-      <c r="B43" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C43" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="D43" s="44" t="n">
-        <v>9</v>
+          <t>2025-01-31 12:00 ven</t>
+        </is>
+      </c>
+      <c r="B43" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="C43" s="41" t="n">
+        <v>59</v>
+      </c>
+      <c r="D43" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3179,31 +3179,31 @@
       </c>
       <c r="F43" s="42" t="inlineStr"/>
       <c r="G43" s="42" t="inlineStr"/>
-      <c r="H43" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I43" s="52" t="inlineStr">
-        <is>
-          <t>5.6</t>
+      <c r="H43" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" s="42" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2024-11-27 21:00 Wed</t>
+          <t>2025-01-31 15:00 ven</t>
         </is>
       </c>
       <c r="B44" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="C44" s="49" t="n">
-        <v>84</v>
-      </c>
-      <c r="D44" s="44" t="n">
-        <v>11</v>
+      <c r="C44" s="46" t="n">
+        <v>70</v>
+      </c>
+      <c r="D44" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3212,28 +3212,28 @@
       </c>
       <c r="F44" s="42" t="inlineStr"/>
       <c r="G44" s="42" t="inlineStr"/>
-      <c r="H44" s="52" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="I44" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H44" s="42" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="I44" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2024-11-28 00:00 Thu</t>
+          <t>2025-01-31 18:00 ven</t>
         </is>
       </c>
       <c r="B45" s="46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" s="49" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D45" s="44" t="n">
         <v>11</v>
@@ -3245,19 +3245,19 @@
       </c>
       <c r="F45" s="42" t="inlineStr"/>
       <c r="G45" s="42" t="inlineStr"/>
-      <c r="H45" s="54" t="inlineStr">
-        <is>
-          <t>26.7</t>
-        </is>
-      </c>
-      <c r="I45" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H45" s="42" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="I45" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -382,13 +382,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -407,13 +407,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -432,13 +432,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -457,13 +457,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -482,13 +482,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -507,13 +507,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -532,13 +532,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -557,13 +557,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -582,13 +582,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -607,13 +607,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -632,13 +632,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -657,13 +657,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -682,13 +682,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -707,13 +707,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -732,13 +732,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -757,13 +757,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -782,13 +782,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -807,13 +807,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -832,13 +832,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -857,13 +857,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -882,13 +882,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -907,13 +907,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -932,13 +932,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -957,13 +957,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -982,13 +982,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1007,13 +1007,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1032,13 +1032,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1057,13 +1057,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1082,13 +1082,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1107,13 +1107,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1132,13 +1132,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1157,13 +1157,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1182,13 +1182,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1207,13 +1207,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1232,13 +1232,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1257,13 +1257,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1282,13 +1282,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1307,13 +1307,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1332,13 +1332,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1357,13 +1357,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1382,13 +1382,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1407,13 +1407,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1432,13 +1432,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1457,13 +1457,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1733,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1807,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2025-01-26 09:00 dom</t>
-        </is>
-      </c>
-      <c r="B2" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C2" s="49" t="n">
-        <v>77</v>
-      </c>
-      <c r="D2" s="41" t="n">
-        <v>19</v>
+          <t>2025-06-11 09:00 Wed</t>
+        </is>
+      </c>
+      <c r="B2" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" s="41" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1831,26 +1831,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I2" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="I2" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2025-01-26 12:00 dom</t>
-        </is>
-      </c>
-      <c r="B3" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" s="46" t="n">
-        <v>68</v>
+          <t>2025-06-11 12:00 Wed</t>
+        </is>
+      </c>
+      <c r="B3" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" s="41" t="n">
+        <v>35</v>
       </c>
       <c r="D3" s="48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1864,26 +1864,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I3" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="I3" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2025-01-26 15:00 dom</t>
-        </is>
-      </c>
-      <c r="B4" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" s="49" t="n">
-        <v>82</v>
+          <t>2025-06-11 15:00 Wed</t>
+        </is>
+      </c>
+      <c r="B4" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" s="41" t="n">
+        <v>36</v>
       </c>
       <c r="D4" s="48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
@@ -1897,26 +1897,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I4" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="I4" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2025-01-26 18:00 dom</t>
-        </is>
-      </c>
-      <c r="B5" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C5" s="49" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" s="48" t="n">
-        <v>22</v>
+          <t>2025-06-11 18:00 Wed</t>
+        </is>
+      </c>
+      <c r="B5" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1930,26 +1930,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I5" s="55" t="inlineStr">
-        <is>
-          <t>90.3</t>
+      <c r="I5" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2025-01-26 21:00 dom</t>
-        </is>
-      </c>
-      <c r="B6" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" s="49" t="n">
-        <v>91</v>
-      </c>
-      <c r="D6" s="48" t="n">
-        <v>20</v>
+          <t>2025-06-11 21:00 Wed</t>
+        </is>
+      </c>
+      <c r="B6" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" s="46" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1963,26 +1963,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I6" s="57" t="inlineStr">
-        <is>
-          <t>35.3</t>
+      <c r="I6" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 00:00 lun</t>
-        </is>
-      </c>
-      <c r="B7" s="46" t="n">
-        <v>11</v>
+          <t>2025-06-12 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B7" s="41" t="n">
+        <v>20</v>
       </c>
       <c r="C7" s="49" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D7" s="41" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -1996,26 +1996,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I7" s="53" t="inlineStr">
-        <is>
-          <t>17.6</t>
+      <c r="I7" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 03:00 lun</t>
-        </is>
-      </c>
-      <c r="B8" s="46" t="n">
-        <v>11</v>
+          <t>2025-06-12 03:00 Thu</t>
+        </is>
+      </c>
+      <c r="B8" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="C8" s="49" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D8" s="41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2038,17 +2038,17 @@
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 06:00 lun</t>
-        </is>
-      </c>
-      <c r="B9" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" s="49" t="n">
-        <v>96</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>11</v>
+          <t>2025-06-12 06:00 Thu</t>
+        </is>
+      </c>
+      <c r="B9" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" s="41" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" s="48" t="n">
+        <v>21</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2071,17 +2071,17 @@
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 09:00 lun</t>
-        </is>
-      </c>
-      <c r="B10" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" s="49" t="n">
-        <v>76</v>
-      </c>
-      <c r="D10" s="41" t="n">
-        <v>18</v>
+          <t>2025-06-12 09:00 Thu</t>
+        </is>
+      </c>
+      <c r="B10" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="C10" s="41" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2090,9 +2090,9 @@
       </c>
       <c r="F10" s="42" t="inlineStr"/>
       <c r="G10" s="42" t="inlineStr"/>
-      <c r="H10" s="42" t="inlineStr">
-        <is>
-          <t>1.2</t>
+      <c r="H10" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I10" s="38" t="inlineStr">
@@ -2104,17 +2104,17 @@
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 12:00 lun</t>
-        </is>
-      </c>
-      <c r="B11" s="41" t="n">
-        <v>17</v>
+          <t>2025-06-12 12:00 Thu</t>
+        </is>
+      </c>
+      <c r="B11" s="40" t="n">
+        <v>29</v>
       </c>
       <c r="C11" s="41" t="n">
-        <v>59</v>
-      </c>
-      <c r="D11" s="41" t="n">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
@@ -2123,9 +2123,9 @@
       </c>
       <c r="F11" s="42" t="inlineStr"/>
       <c r="G11" s="42" t="inlineStr"/>
-      <c r="H11" s="42" t="inlineStr">
-        <is>
-          <t>0.6</t>
+      <c r="H11" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I11" s="38" t="inlineStr">
@@ -2137,17 +2137,17 @@
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 15:00 lun</t>
-        </is>
-      </c>
-      <c r="B12" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C12" s="46" t="n">
-        <v>65</v>
-      </c>
-      <c r="D12" s="44" t="n">
-        <v>11</v>
+          <t>2025-06-12 15:00 Thu</t>
+        </is>
+      </c>
+      <c r="B12" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="C12" s="41" t="n">
+        <v>41</v>
+      </c>
+      <c r="D12" s="48" t="n">
+        <v>21</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
@@ -2170,17 +2170,17 @@
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 18:00 lun</t>
-        </is>
-      </c>
-      <c r="B13" s="46" t="n">
+          <t>2025-06-12 18:00 Thu</t>
+        </is>
+      </c>
+      <c r="B13" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" s="41" t="n">
         <v>12</v>
-      </c>
-      <c r="C13" s="49" t="n">
-        <v>95</v>
-      </c>
-      <c r="D13" s="41" t="n">
-        <v>14</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2203,17 +2203,17 @@
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2025-01-27 21:00 lun</t>
-        </is>
-      </c>
-      <c r="B14" s="46" t="n">
-        <v>11</v>
+          <t>2025-06-12 21:00 Thu</t>
+        </is>
+      </c>
+      <c r="B14" s="41" t="n">
+        <v>22</v>
       </c>
       <c r="C14" s="49" t="n">
-        <v>88</v>
-      </c>
-      <c r="D14" s="41" t="n">
-        <v>15</v>
+        <v>72</v>
+      </c>
+      <c r="D14" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2222,9 +2222,9 @@
       </c>
       <c r="F14" s="42" t="inlineStr"/>
       <c r="G14" s="42" t="inlineStr"/>
-      <c r="H14" s="42" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="H14" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" s="38" t="inlineStr">
@@ -2236,17 +2236,17 @@
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 00:00 mar</t>
-        </is>
-      </c>
-      <c r="B15" s="46" t="n">
-        <v>11</v>
+          <t>2025-06-13 00:00 Fri</t>
+        </is>
+      </c>
+      <c r="B15" s="41" t="n">
+        <v>21</v>
       </c>
       <c r="C15" s="49" t="n">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D15" s="41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
@@ -2255,31 +2255,31 @@
       </c>
       <c r="F15" s="42" t="inlineStr"/>
       <c r="G15" s="42" t="inlineStr"/>
-      <c r="H15" s="42" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="I15" s="42" t="inlineStr">
-        <is>
-          <t>1.6</t>
+      <c r="H15" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I15" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 03:00 mar</t>
-        </is>
-      </c>
-      <c r="B16" s="46" t="n">
-        <v>11</v>
+          <t>2025-06-13 03:00 Fri</t>
+        </is>
+      </c>
+      <c r="B16" s="41" t="n">
+        <v>20</v>
       </c>
       <c r="C16" s="49" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D16" s="41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2293,26 +2293,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I16" s="54" t="inlineStr">
-        <is>
-          <t>23.1</t>
+      <c r="I16" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 06:00 mar</t>
-        </is>
-      </c>
-      <c r="B17" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="49" t="n">
-        <v>87</v>
+          <t>2025-06-13 06:00 Fri</t>
+        </is>
+      </c>
+      <c r="B17" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="C17" s="41" t="n">
+        <v>51</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2326,26 +2326,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I17" s="53" t="inlineStr">
-        <is>
-          <t>14</t>
+      <c r="I17" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 09:00 mar</t>
-        </is>
-      </c>
-      <c r="B18" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C18" s="49" t="n">
-        <v>74</v>
-      </c>
-      <c r="D18" s="50" t="n">
-        <v>31</v>
+          <t>2025-06-13 09:00 Fri</t>
+        </is>
+      </c>
+      <c r="B18" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" s="41" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>23</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2354,9 +2354,9 @@
       </c>
       <c r="F18" s="42" t="inlineStr"/>
       <c r="G18" s="42" t="inlineStr"/>
-      <c r="H18" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H18" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" s="38" t="inlineStr">
@@ -2368,17 +2368,17 @@
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 12:00 mar</t>
-        </is>
-      </c>
-      <c r="B19" s="41" t="n">
-        <v>16</v>
-      </c>
-      <c r="C19" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D19" s="50" t="n">
-        <v>33</v>
+          <t>2025-06-13 12:00 Fri</t>
+        </is>
+      </c>
+      <c r="B19" s="43" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" s="41" t="n">
+        <v>32</v>
+      </c>
+      <c r="D19" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2387,31 +2387,31 @@
       </c>
       <c r="F19" s="42" t="inlineStr"/>
       <c r="G19" s="42" t="inlineStr"/>
-      <c r="H19" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="I19" s="42" t="inlineStr">
-        <is>
-          <t>3.9</t>
+      <c r="H19" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 15:00 mar</t>
-        </is>
-      </c>
-      <c r="B20" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C20" s="49" t="n">
-        <v>85</v>
+          <t>2025-06-13 15:00 Fri</t>
+        </is>
+      </c>
+      <c r="B20" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C20" s="41" t="n">
+        <v>35</v>
       </c>
       <c r="D20" s="48" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2420,31 +2420,31 @@
       </c>
       <c r="F20" s="42" t="inlineStr"/>
       <c r="G20" s="42" t="inlineStr"/>
-      <c r="H20" s="53" t="inlineStr">
-        <is>
-          <t>14.6</t>
-        </is>
-      </c>
-      <c r="I20" s="55" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H20" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 18:00 mar</t>
-        </is>
-      </c>
-      <c r="B21" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C21" s="49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D21" s="48" t="n">
-        <v>26</v>
+          <t>2025-06-13 18:00 Fri</t>
+        </is>
+      </c>
+      <c r="B21" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C21" s="41" t="n">
+        <v>59</v>
+      </c>
+      <c r="D21" s="41" t="n">
+        <v>15</v>
       </c>
       <c r="E21" s="38" t="inlineStr">
         <is>
@@ -2453,31 +2453,31 @@
       </c>
       <c r="F21" s="42" t="inlineStr"/>
       <c r="G21" s="42" t="inlineStr"/>
-      <c r="H21" s="54" t="inlineStr">
-        <is>
-          <t>26.4</t>
-        </is>
-      </c>
-      <c r="I21" s="55" t="inlineStr">
-        <is>
-          <t>95.5</t>
+      <c r="H21" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2025-01-28 21:00 mar</t>
-        </is>
-      </c>
-      <c r="B22" s="46" t="n">
-        <v>13</v>
+          <t>2025-06-13 21:00 Fri</t>
+        </is>
+      </c>
+      <c r="B22" s="41" t="n">
+        <v>22</v>
       </c>
       <c r="C22" s="49" t="n">
-        <v>94</v>
-      </c>
-      <c r="D22" s="48" t="n">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="D22" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2486,31 +2486,31 @@
       </c>
       <c r="F22" s="42" t="inlineStr"/>
       <c r="G22" s="42" t="inlineStr"/>
-      <c r="H22" s="52" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="I22" s="54" t="inlineStr">
-        <is>
-          <t>24.7</t>
+      <c r="H22" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 00:00 mer</t>
-        </is>
-      </c>
-      <c r="B23" s="46" t="n">
+          <t>2025-06-14 00:00 Sat</t>
+        </is>
+      </c>
+      <c r="B23" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="49" t="n">
+        <v>83</v>
+      </c>
+      <c r="D23" s="41" t="n">
         <v>13</v>
-      </c>
-      <c r="C23" s="49" t="n">
-        <v>96</v>
-      </c>
-      <c r="D23" s="41" t="n">
-        <v>19</v>
       </c>
       <c r="E23" s="38" t="inlineStr">
         <is>
@@ -2519,97 +2519,97 @@
       </c>
       <c r="F23" s="42" t="inlineStr"/>
       <c r="G23" s="42" t="inlineStr"/>
-      <c r="H23" s="52" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="I23" s="53" t="inlineStr">
-        <is>
-          <t>21.7</t>
+      <c r="H23" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 03:00 mer</t>
-        </is>
-      </c>
-      <c r="B24" s="46" t="n">
-        <v>13</v>
+          <t>2025-06-14 03:00 Sat</t>
+        </is>
+      </c>
+      <c r="B24" s="41" t="n">
+        <v>21</v>
       </c>
       <c r="C24" s="49" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D24" s="41" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F24" s="46" t="inlineStr"/>
+      <c r="F24" s="42" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="42" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="I24" s="54" t="inlineStr">
-        <is>
-          <t>22.3</t>
+      <c r="H24" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 06:00 mer</t>
-        </is>
-      </c>
-      <c r="B25" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C25" s="49" t="n">
-        <v>94</v>
+          <t>2025-06-14 06:00 Sat</t>
+        </is>
+      </c>
+      <c r="B25" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="C25" s="41" t="n">
+        <v>58</v>
       </c>
       <c r="D25" s="48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F25" s="46" t="inlineStr"/>
+      <c r="F25" s="42" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="52" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="I25" s="57" t="inlineStr">
-        <is>
-          <t>35.6</t>
+      <c r="H25" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 09:00 mer</t>
-        </is>
-      </c>
-      <c r="B26" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C26" s="49" t="n">
-        <v>78</v>
+          <t>2025-06-14 09:00 Sat</t>
+        </is>
+      </c>
+      <c r="B26" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" s="41" t="n">
+        <v>50</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2618,28 +2618,28 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="56" t="inlineStr">
-        <is>
-          <t>68.5</t>
-        </is>
-      </c>
-      <c r="I26" s="52" t="inlineStr">
-        <is>
-          <t>6.3</t>
+      <c r="H26" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 12:00 mer</t>
-        </is>
-      </c>
-      <c r="B27" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="C27" s="49" t="n">
-        <v>79</v>
+          <t>2025-06-14 12:00 Sat</t>
+        </is>
+      </c>
+      <c r="B27" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="C27" s="41" t="n">
+        <v>37</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>25</v>
@@ -2649,99 +2649,99 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F27" s="46" t="inlineStr"/>
+      <c r="F27" s="42" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="56" t="inlineStr">
-        <is>
-          <t>62.8</t>
-        </is>
-      </c>
-      <c r="I27" s="57" t="inlineStr">
-        <is>
-          <t>30.3</t>
+      <c r="H27" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 15:00 mer</t>
-        </is>
-      </c>
-      <c r="B28" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C28" s="49" t="n">
-        <v>85</v>
-      </c>
-      <c r="D28" s="50" t="n">
-        <v>30</v>
+          <t>2025-06-14 15:00 Sat</t>
+        </is>
+      </c>
+      <c r="B28" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C28" s="41" t="n">
+        <v>32</v>
+      </c>
+      <c r="D28" s="48" t="n">
+        <v>27</v>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F28" s="46" t="inlineStr"/>
+      <c r="F28" s="42" t="inlineStr"/>
       <c r="G28" s="42" t="inlineStr"/>
-      <c r="H28" s="55" t="inlineStr">
-        <is>
-          <t>89.6</t>
-        </is>
-      </c>
-      <c r="I28" s="56" t="inlineStr">
-        <is>
-          <t>77</t>
+      <c r="H28" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 18:00 mer</t>
-        </is>
-      </c>
-      <c r="B29" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C29" s="49" t="n">
-        <v>87</v>
-      </c>
-      <c r="D29" s="50" t="n">
-        <v>31</v>
+          <t>2025-06-14 18:00 Sat</t>
+        </is>
+      </c>
+      <c r="B29" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" s="41" t="n">
+        <v>55</v>
+      </c>
+      <c r="D29" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F29" s="46" t="inlineStr"/>
+      <c r="F29" s="42" t="inlineStr"/>
       <c r="G29" s="42" t="inlineStr"/>
-      <c r="H29" s="55" t="inlineStr">
-        <is>
-          <t>90.8</t>
-        </is>
-      </c>
-      <c r="I29" s="55" t="inlineStr">
-        <is>
-          <t>87.6</t>
+      <c r="H29" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2025-01-29 21:00 mer</t>
-        </is>
-      </c>
-      <c r="B30" s="46" t="n">
-        <v>12</v>
-      </c>
-      <c r="C30" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D30" s="50" t="n">
-        <v>29</v>
+          <t>2025-06-14 21:00 Sat</t>
+        </is>
+      </c>
+      <c r="B30" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C30" s="46" t="n">
+        <v>66</v>
+      </c>
+      <c r="D30" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2750,207 +2750,207 @@
       </c>
       <c r="F30" s="42" t="inlineStr"/>
       <c r="G30" s="42" t="inlineStr"/>
-      <c r="H30" s="55" t="inlineStr">
-        <is>
-          <t>98.4</t>
-        </is>
-      </c>
-      <c r="I30" s="56" t="inlineStr">
-        <is>
-          <t>71.1</t>
+      <c r="H30" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 00:00 gio</t>
-        </is>
-      </c>
-      <c r="B31" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C31" s="49" t="n">
-        <v>87</v>
-      </c>
-      <c r="D31" s="41" t="n">
-        <v>15</v>
+          <t>2025-06-15 00:00 Sun</t>
+        </is>
+      </c>
+      <c r="B31" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" s="46" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" s="48" t="n">
+        <v>22</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F31" s="46" t="inlineStr"/>
+      <c r="F31" s="42" t="inlineStr"/>
       <c r="G31" s="42" t="inlineStr"/>
-      <c r="H31" s="57" t="inlineStr">
-        <is>
-          <t>54.6</t>
-        </is>
-      </c>
-      <c r="I31" s="57" t="inlineStr">
-        <is>
-          <t>35.6</t>
+      <c r="H31" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 03:00 gio</t>
-        </is>
-      </c>
-      <c r="B32" s="60" t="n">
-        <v>10</v>
+          <t>2025-06-15 03:00 Sun</t>
+        </is>
+      </c>
+      <c r="B32" s="41" t="n">
+        <v>21</v>
       </c>
       <c r="C32" s="49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D32" s="44" t="n">
-        <v>7</v>
+        <v>76</v>
+      </c>
+      <c r="D32" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F32" s="46" t="inlineStr"/>
+      <c r="F32" s="42" t="inlineStr"/>
       <c r="G32" s="42" t="inlineStr"/>
-      <c r="H32" s="54" t="inlineStr">
-        <is>
-          <t>26.7</t>
-        </is>
-      </c>
-      <c r="I32" s="56" t="inlineStr">
-        <is>
-          <t>66.3</t>
+      <c r="H32" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I32" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 06:00 gio</t>
-        </is>
-      </c>
-      <c r="B33" s="60" t="n">
-        <v>10</v>
-      </c>
-      <c r="C33" s="49" t="n">
-        <v>92</v>
-      </c>
-      <c r="D33" s="41" t="n">
-        <v>17</v>
+          <t>2025-06-15 06:00 Sun</t>
+        </is>
+      </c>
+      <c r="B33" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" s="41" t="n">
+        <v>45</v>
+      </c>
+      <c r="D33" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F33" s="46" t="inlineStr"/>
+      <c r="F33" s="42" t="inlineStr"/>
       <c r="G33" s="42" t="inlineStr"/>
-      <c r="H33" s="56" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="I33" s="55" t="inlineStr">
-        <is>
-          <t>83.1</t>
+      <c r="H33" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I33" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 09:00 gio</t>
-        </is>
-      </c>
-      <c r="B34" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C34" s="49" t="n">
-        <v>85</v>
+          <t>2025-06-15 09:00 Sun</t>
+        </is>
+      </c>
+      <c r="B34" s="40" t="n">
+        <v>27</v>
+      </c>
+      <c r="C34" s="41" t="n">
+        <v>39</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F34" s="46" t="inlineStr"/>
+      <c r="F34" s="42" t="inlineStr"/>
       <c r="G34" s="42" t="inlineStr"/>
-      <c r="H34" s="55" t="inlineStr">
-        <is>
-          <t>99.6</t>
-        </is>
-      </c>
-      <c r="I34" s="54" t="inlineStr">
-        <is>
-          <t>29.2</t>
+      <c r="H34" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I34" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 12:00 gio</t>
-        </is>
-      </c>
-      <c r="B35" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C35" s="46" t="n">
-        <v>64</v>
-      </c>
-      <c r="D35" s="48" t="n">
-        <v>24</v>
+          <t>2025-06-15 12:00 Sun</t>
+        </is>
+      </c>
+      <c r="B35" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C35" s="41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D35" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E35" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F35" s="46" t="inlineStr"/>
+      <c r="F35" s="42" t="inlineStr"/>
       <c r="G35" s="42" t="inlineStr"/>
-      <c r="H35" s="55" t="inlineStr">
-        <is>
-          <t>82.1</t>
-        </is>
-      </c>
-      <c r="I35" s="53" t="inlineStr">
-        <is>
-          <t>14.6</t>
+      <c r="H35" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I35" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 15:00 gio</t>
-        </is>
-      </c>
-      <c r="B36" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C36" s="49" t="n">
-        <v>72</v>
+          <t>2025-06-15 15:00 Sun</t>
+        </is>
+      </c>
+      <c r="B36" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="C36" s="41" t="n">
+        <v>32</v>
       </c>
       <c r="D36" s="41" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F36" s="46" t="inlineStr"/>
+      <c r="F36" s="42" t="inlineStr"/>
       <c r="G36" s="42" t="inlineStr"/>
-      <c r="H36" s="55" t="inlineStr">
-        <is>
-          <t>82.3</t>
+      <c r="H36" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" s="38" t="inlineStr">
@@ -2962,17 +2962,17 @@
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 18:00 gio</t>
-        </is>
-      </c>
-      <c r="B37" s="60" t="n">
+          <t>2025-06-15 18:00 Sun</t>
+        </is>
+      </c>
+      <c r="B37" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" s="41" t="n">
+        <v>56</v>
+      </c>
+      <c r="D37" s="44" t="n">
         <v>10</v>
-      </c>
-      <c r="C37" s="49" t="n">
-        <v>78</v>
-      </c>
-      <c r="D37" s="45" t="n">
-        <v>5</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2981,31 +2981,31 @@
       </c>
       <c r="F37" s="42" t="inlineStr"/>
       <c r="G37" s="42" t="inlineStr"/>
-      <c r="H37" s="57" t="inlineStr">
-        <is>
-          <t>53.2</t>
-        </is>
-      </c>
-      <c r="I37" s="53" t="inlineStr">
-        <is>
-          <t>16.4</t>
+      <c r="H37" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I37" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2025-01-30 21:00 gio</t>
-        </is>
-      </c>
-      <c r="B38" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C38" s="49" t="n">
-        <v>79</v>
-      </c>
-      <c r="D38" s="44" t="n">
-        <v>8</v>
+          <t>2025-06-15 21:00 Sun</t>
+        </is>
+      </c>
+      <c r="B38" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" s="46" t="n">
+        <v>66</v>
+      </c>
+      <c r="D38" s="45" t="n">
+        <v>2</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3014,31 +3014,31 @@
       </c>
       <c r="F38" s="42" t="inlineStr"/>
       <c r="G38" s="42" t="inlineStr"/>
-      <c r="H38" s="42" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="I38" s="57" t="inlineStr">
-        <is>
-          <t>54</t>
+      <c r="H38" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 00:00 ven</t>
-        </is>
-      </c>
-      <c r="B39" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="49" t="n">
-        <v>81</v>
-      </c>
-      <c r="D39" s="44" t="n">
-        <v>11</v>
+          <t>2025-06-16 00:00 Mon</t>
+        </is>
+      </c>
+      <c r="B39" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" s="46" t="n">
+        <v>63</v>
+      </c>
+      <c r="D39" s="45" t="n">
+        <v>3</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3047,31 +3047,31 @@
       </c>
       <c r="F39" s="42" t="inlineStr"/>
       <c r="G39" s="42" t="inlineStr"/>
-      <c r="H39" s="42" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="I39" s="57" t="inlineStr">
-        <is>
-          <t>33.3</t>
+      <c r="H39" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 03:00 ven</t>
-        </is>
-      </c>
-      <c r="B40" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C40" s="49" t="n">
-        <v>84</v>
-      </c>
-      <c r="D40" s="41" t="n">
-        <v>12</v>
+          <t>2025-06-16 03:00 Mon</t>
+        </is>
+      </c>
+      <c r="B40" s="41" t="n">
+        <v>19</v>
+      </c>
+      <c r="C40" s="46" t="n">
+        <v>65</v>
+      </c>
+      <c r="D40" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
@@ -3085,26 +3085,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I40" s="54" t="inlineStr">
-        <is>
-          <t>28.3</t>
+      <c r="I40" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 06:00 ven</t>
-        </is>
-      </c>
-      <c r="B41" s="60" t="n">
-        <v>9</v>
-      </c>
-      <c r="C41" s="49" t="n">
-        <v>86</v>
-      </c>
-      <c r="D41" s="44" t="n">
-        <v>10</v>
+          <t>2025-06-16 06:00 Mon</t>
+        </is>
+      </c>
+      <c r="B41" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C41" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3118,26 +3118,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I41" s="54" t="inlineStr">
-        <is>
-          <t>23.9</t>
+      <c r="I41" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 09:00 ven</t>
-        </is>
-      </c>
-      <c r="B42" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C42" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="D42" s="41" t="n">
-        <v>12</v>
+          <t>2025-06-16 09:00 Mon</t>
+        </is>
+      </c>
+      <c r="B42" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C42" s="41" t="n">
+        <v>33</v>
+      </c>
+      <c r="D42" s="44" t="n">
+        <v>6</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3151,26 +3151,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I42" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
+      <c r="I42" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 12:00 ven</t>
-        </is>
-      </c>
-      <c r="B43" s="41" t="n">
-        <v>15</v>
+          <t>2025-06-16 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B43" s="43" t="n">
+        <v>31</v>
       </c>
       <c r="C43" s="41" t="n">
-        <v>59</v>
-      </c>
-      <c r="D43" s="41" t="n">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="D43" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3184,26 +3184,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I43" s="42" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="I43" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 15:00 ven</t>
-        </is>
-      </c>
-      <c r="B44" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="C44" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D44" s="41" t="n">
-        <v>12</v>
+          <t>2025-06-16 15:00 Mon</t>
+        </is>
+      </c>
+      <c r="B44" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="C44" s="41" t="n">
+        <v>36</v>
+      </c>
+      <c r="D44" s="44" t="n">
+        <v>8</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3212,31 +3212,31 @@
       </c>
       <c r="F44" s="42" t="inlineStr"/>
       <c r="G44" s="42" t="inlineStr"/>
-      <c r="H44" s="42" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="I44" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H44" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I44" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2025-01-31 18:00 ven</t>
-        </is>
-      </c>
-      <c r="B45" s="46" t="n">
-        <v>11</v>
-      </c>
-      <c r="C45" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D45" s="44" t="n">
-        <v>11</v>
+          <t>2025-06-16 18:00 Mon</t>
+        </is>
+      </c>
+      <c r="B45" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C45" s="41" t="n">
+        <v>52</v>
+      </c>
+      <c r="D45" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="E45" s="38" t="inlineStr">
         <is>
@@ -3245,19 +3245,19 @@
       </c>
       <c r="F45" s="42" t="inlineStr"/>
       <c r="G45" s="42" t="inlineStr"/>
-      <c r="H45" s="42" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="I45" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H45" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I45" s="42" t="inlineStr">
+        <is>
+          <t>2.6</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1807,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2025-06-11 09:00 Wed</t>
-        </is>
-      </c>
-      <c r="B2" s="40" t="n">
-        <v>28</v>
+          <t>2025-06-16 03:00 Mon</t>
+        </is>
+      </c>
+      <c r="B2" s="41" t="n">
+        <v>20</v>
       </c>
       <c r="C2" s="41" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" s="48" t="n">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="D2" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1840,17 +1840,17 @@
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2025-06-11 12:00 Wed</t>
+          <t>2025-06-16 06:00 Mon</t>
         </is>
       </c>
       <c r="B3" s="40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="41" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" s="48" t="n">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="44" t="n">
+        <v>6</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1873,17 +1873,17 @@
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2025-06-11 15:00 Wed</t>
+          <t>2025-06-16 09:00 Mon</t>
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>28</v>
-      </c>
-      <c r="C4" s="41" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" s="48" t="n">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
@@ -1906,17 +1906,17 @@
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2025-06-11 18:00 Wed</t>
-        </is>
-      </c>
-      <c r="B5" s="40" t="n">
-        <v>23</v>
-      </c>
-      <c r="C5" s="41" t="n">
-        <v>55</v>
+          <t>2025-06-16 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B5" s="43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" s="40" t="n">
+        <v>27</v>
       </c>
       <c r="D5" s="41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1939,17 +1939,17 @@
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2025-06-11 21:00 Wed</t>
-        </is>
-      </c>
-      <c r="B6" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C6" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" s="41" t="n">
-        <v>14</v>
+          <t>2025-06-16 15:00 Mon</t>
+        </is>
+      </c>
+      <c r="B6" s="43" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1972,17 +1972,17 @@
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 00:00 Thu</t>
-        </is>
-      </c>
-      <c r="B7" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" s="49" t="n">
-        <v>76</v>
-      </c>
-      <c r="D7" s="41" t="n">
-        <v>14</v>
+          <t>2025-06-16 18:00 Mon</t>
+        </is>
+      </c>
+      <c r="B7" s="40" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -2005,17 +2005,17 @@
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 03:00 Thu</t>
-        </is>
-      </c>
-      <c r="B8" s="41" t="n">
-        <v>19</v>
-      </c>
-      <c r="C8" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D8" s="41" t="n">
-        <v>13</v>
+          <t>2025-06-16 21:00 Mon</t>
+        </is>
+      </c>
+      <c r="B8" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="41" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I8" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I8" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 06:00 Thu</t>
+          <t>2025-06-17 00:00 Tue</t>
         </is>
       </c>
       <c r="B9" s="40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="41" t="n">
-        <v>53</v>
-      </c>
-      <c r="D9" s="48" t="n">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="D9" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2062,26 +2062,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I9" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I9" s="53" t="inlineStr">
+        <is>
+          <t>10.9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 09:00 Thu</t>
-        </is>
-      </c>
-      <c r="B10" s="40" t="n">
-        <v>28</v>
-      </c>
-      <c r="C10" s="41" t="n">
-        <v>43</v>
-      </c>
-      <c r="D10" s="48" t="n">
+          <t>2025-06-17 03:00 Tue</t>
+        </is>
+      </c>
+      <c r="B10" s="41" t="n">
         <v>22</v>
+      </c>
+      <c r="C10" s="46" t="n">
+        <v>63</v>
+      </c>
+      <c r="D10" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2095,26 +2095,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I10" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I10" s="56" t="inlineStr">
+        <is>
+          <t>73</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 12:00 Thu</t>
+          <t>2025-06-17 06:00 Tue</t>
         </is>
       </c>
       <c r="B11" s="40" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="41" t="n">
-        <v>41</v>
-      </c>
-      <c r="D11" s="48" t="n">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>4</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
@@ -2123,31 +2123,31 @@
       </c>
       <c r="F11" s="42" t="inlineStr"/>
       <c r="G11" s="42" t="inlineStr"/>
-      <c r="H11" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H11" s="42" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="I11" s="55" t="inlineStr">
+        <is>
+          <t>86.6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 15:00 Thu</t>
+          <t>2025-06-17 09:00 Tue</t>
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="41" t="n">
-        <v>41</v>
-      </c>
-      <c r="D12" s="48" t="n">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
@@ -2156,31 +2156,31 @@
       </c>
       <c r="F12" s="42" t="inlineStr"/>
       <c r="G12" s="42" t="inlineStr"/>
-      <c r="H12" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I12" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H12" s="53" t="inlineStr">
+        <is>
+          <t>14.3</t>
+        </is>
+      </c>
+      <c r="I12" s="56" t="inlineStr">
+        <is>
+          <t>66.5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 18:00 Thu</t>
-        </is>
-      </c>
-      <c r="B13" s="40" t="n">
-        <v>24</v>
+          <t>2025-06-17 12:00 Tue</t>
+        </is>
+      </c>
+      <c r="B13" s="43" t="n">
+        <v>31</v>
       </c>
       <c r="C13" s="41" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D13" s="41" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2189,31 +2189,31 @@
       </c>
       <c r="F13" s="42" t="inlineStr"/>
       <c r="G13" s="42" t="inlineStr"/>
-      <c r="H13" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I13" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H13" s="52" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="I13" s="57" t="inlineStr">
+        <is>
+          <t>36.8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2025-06-12 21:00 Thu</t>
-        </is>
-      </c>
-      <c r="B14" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C14" s="49" t="n">
-        <v>72</v>
+          <t>2025-06-17 15:00 Tue</t>
+        </is>
+      </c>
+      <c r="B14" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" s="41" t="n">
+        <v>34</v>
       </c>
       <c r="D14" s="44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2227,26 +2227,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I14" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I14" s="53" t="inlineStr">
+        <is>
+          <t>14.1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 00:00 Fri</t>
-        </is>
-      </c>
-      <c r="B15" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C15" s="49" t="n">
-        <v>74</v>
-      </c>
-      <c r="D15" s="41" t="n">
-        <v>13</v>
+          <t>2025-06-17 18:00 Tue</t>
+        </is>
+      </c>
+      <c r="B15" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="C15" s="41" t="n">
+        <v>49</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
@@ -2260,26 +2260,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I15" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I15" s="52" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 03:00 Fri</t>
-        </is>
-      </c>
-      <c r="B16" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C16" s="49" t="n">
-        <v>79</v>
-      </c>
-      <c r="D16" s="41" t="n">
-        <v>13</v>
+          <t>2025-06-17 21:00 Tue</t>
+        </is>
+      </c>
+      <c r="B16" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" s="46" t="n">
+        <v>69</v>
+      </c>
+      <c r="D16" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2293,26 +2293,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I16" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I16" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 06:00 Fri</t>
-        </is>
-      </c>
-      <c r="B17" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="C17" s="41" t="n">
-        <v>51</v>
-      </c>
-      <c r="D17" s="48" t="n">
-        <v>20</v>
+          <t>2025-06-18 00:00 Wed</t>
+        </is>
+      </c>
+      <c r="B17" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" s="49" t="n">
+        <v>77</v>
+      </c>
+      <c r="D17" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2326,26 +2326,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I17" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I17" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 09:00 Fri</t>
-        </is>
-      </c>
-      <c r="B18" s="40" t="n">
-        <v>30</v>
-      </c>
-      <c r="C18" s="41" t="n">
-        <v>35</v>
-      </c>
-      <c r="D18" s="48" t="n">
-        <v>23</v>
+          <t>2025-06-18 03:00 Wed</t>
+        </is>
+      </c>
+      <c r="B18" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" s="49" t="n">
+        <v>81</v>
+      </c>
+      <c r="D18" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2359,26 +2359,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I18" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I18" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 12:00 Fri</t>
-        </is>
-      </c>
-      <c r="B19" s="43" t="n">
-        <v>31</v>
-      </c>
-      <c r="C19" s="41" t="n">
-        <v>32</v>
-      </c>
-      <c r="D19" s="48" t="n">
-        <v>26</v>
+          <t>2025-06-18 06:00 Wed</t>
+        </is>
+      </c>
+      <c r="B19" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" s="46" t="n">
+        <v>61</v>
+      </c>
+      <c r="D19" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2392,26 +2392,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I19" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I19" s="42" t="inlineStr">
+        <is>
+          <t>4.8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 15:00 Fri</t>
+          <t>2025-06-18 09:00 Wed</t>
         </is>
       </c>
       <c r="B20" s="40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="41" t="n">
-        <v>35</v>
-      </c>
-      <c r="D20" s="48" t="n">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="D20" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2425,26 +2425,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I20" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I20" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 18:00 Fri</t>
+          <t>2025-06-18 12:00 Wed</t>
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21" s="41" t="n">
-        <v>59</v>
-      </c>
-      <c r="D21" s="41" t="n">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="48" t="n">
+        <v>21</v>
       </c>
       <c r="E21" s="38" t="inlineStr">
         <is>
@@ -2458,26 +2458,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I21" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I21" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2025-06-13 21:00 Fri</t>
-        </is>
-      </c>
-      <c r="B22" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C22" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="D22" s="41" t="n">
-        <v>14</v>
+          <t>2025-06-18 15:00 Wed</t>
+        </is>
+      </c>
+      <c r="B22" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="C22" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="D22" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2486,31 +2486,31 @@
       </c>
       <c r="F22" s="42" t="inlineStr"/>
       <c r="G22" s="42" t="inlineStr"/>
-      <c r="H22" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I22" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H22" s="42" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="I22" s="42" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 00:00 Sat</t>
-        </is>
-      </c>
-      <c r="B23" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" s="49" t="n">
-        <v>83</v>
+          <t>2025-06-18 18:00 Wed</t>
+        </is>
+      </c>
+      <c r="B23" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" s="46" t="n">
+        <v>68</v>
       </c>
       <c r="D23" s="41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="38" t="inlineStr">
         <is>
@@ -2519,31 +2519,31 @@
       </c>
       <c r="F23" s="42" t="inlineStr"/>
       <c r="G23" s="42" t="inlineStr"/>
-      <c r="H23" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I23" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H23" s="42" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="I23" s="42" t="inlineStr">
+        <is>
+          <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 03:00 Sat</t>
+          <t>2025-06-18 21:00 Wed</t>
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D24" s="41" t="n">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="D24" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E24" s="38" t="inlineStr">
         <is>
@@ -2552,31 +2552,31 @@
       </c>
       <c r="F24" s="42" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H24" s="42" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="I24" s="42" t="inlineStr">
+        <is>
+          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 06:00 Sat</t>
-        </is>
-      </c>
-      <c r="B25" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="C25" s="41" t="n">
-        <v>58</v>
-      </c>
-      <c r="D25" s="48" t="n">
-        <v>25</v>
+          <t>2025-06-19 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B25" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C25" s="49" t="n">
+        <v>83</v>
+      </c>
+      <c r="D25" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
@@ -2585,31 +2585,31 @@
       </c>
       <c r="F25" s="42" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I25" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H25" s="42" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="I25" s="42" t="inlineStr">
+        <is>
+          <t>1.3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 09:00 Sat</t>
-        </is>
-      </c>
-      <c r="B26" s="40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C26" s="41" t="n">
-        <v>50</v>
-      </c>
-      <c r="D26" s="48" t="n">
-        <v>27</v>
+          <t>2025-06-19 03:00 Thu</t>
+        </is>
+      </c>
+      <c r="B26" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" s="49" t="n">
+        <v>85</v>
+      </c>
+      <c r="D26" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2618,9 +2618,9 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H26" s="42" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
       <c r="I26" s="38" t="inlineStr">
@@ -2632,17 +2632,17 @@
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 12:00 Sat</t>
+          <t>2025-06-19 06:00 Thu</t>
         </is>
       </c>
       <c r="B27" s="40" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="41" t="n">
-        <v>37</v>
-      </c>
-      <c r="D27" s="48" t="n">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="D27" s="41" t="n">
+        <v>18</v>
       </c>
       <c r="E27" s="38" t="inlineStr">
         <is>
@@ -2651,9 +2651,9 @@
       </c>
       <c r="F27" s="42" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H27" s="42" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
       <c r="I27" s="38" t="inlineStr">
@@ -2665,17 +2665,17 @@
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 15:00 Sat</t>
+          <t>2025-06-19 09:00 Thu</t>
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="41" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
@@ -2698,17 +2698,17 @@
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 18:00 Sat</t>
+          <t>2025-06-19 12:00 Thu</t>
         </is>
       </c>
       <c r="B29" s="40" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="41" t="n">
-        <v>55</v>
-      </c>
-      <c r="D29" s="48" t="n">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D29" s="41" t="n">
+        <v>19</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2025-06-14 21:00 Sat</t>
-        </is>
-      </c>
-      <c r="B30" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C30" s="46" t="n">
-        <v>66</v>
-      </c>
-      <c r="D30" s="41" t="n">
-        <v>19</v>
+          <t>2025-06-19 15:00 Thu</t>
+        </is>
+      </c>
+      <c r="B30" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="41" t="n">
+        <v>46</v>
+      </c>
+      <c r="D30" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2764,17 +2764,17 @@
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 00:00 Sun</t>
-        </is>
-      </c>
-      <c r="B31" s="41" t="n">
-        <v>22</v>
+          <t>2025-06-19 18:00 Thu</t>
+        </is>
+      </c>
+      <c r="B31" s="40" t="n">
+        <v>24</v>
       </c>
       <c r="C31" s="46" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" s="48" t="n">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="D31" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
@@ -2797,17 +2797,17 @@
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 03:00 Sun</t>
+          <t>2025-06-19 21:00 Thu</t>
         </is>
       </c>
       <c r="B32" s="41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C32" s="49" t="n">
-        <v>76</v>
-      </c>
-      <c r="D32" s="48" t="n">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="D32" s="44" t="n">
+        <v>9</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
@@ -2830,17 +2830,17 @@
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 06:00 Sun</t>
-        </is>
-      </c>
-      <c r="B33" s="40" t="n">
-        <v>25</v>
-      </c>
-      <c r="C33" s="41" t="n">
-        <v>45</v>
-      </c>
-      <c r="D33" s="48" t="n">
-        <v>20</v>
+          <t>2025-06-20 00:00 Fri</t>
+        </is>
+      </c>
+      <c r="B33" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C33" s="49" t="n">
+        <v>82</v>
+      </c>
+      <c r="D33" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
@@ -2863,17 +2863,17 @@
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 09:00 Sun</t>
-        </is>
-      </c>
-      <c r="B34" s="40" t="n">
-        <v>27</v>
-      </c>
-      <c r="C34" s="41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D34" s="48" t="n">
-        <v>24</v>
+          <t>2025-06-20 03:00 Fri</t>
+        </is>
+      </c>
+      <c r="B34" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="C34" s="49" t="n">
+        <v>89</v>
+      </c>
+      <c r="D34" s="41" t="n">
+        <v>12</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
@@ -2896,14 +2896,14 @@
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 12:00 Sun</t>
+          <t>2025-06-20 06:00 Fri</t>
         </is>
       </c>
       <c r="B35" s="40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C35" s="41" t="n">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="46" t="n">
+        <v>63</v>
       </c>
       <c r="D35" s="41" t="n">
         <v>19</v>
@@ -2929,17 +2929,17 @@
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 15:00 Sun</t>
+          <t>2025-06-20 09:00 Fri</t>
         </is>
       </c>
       <c r="B36" s="40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="41" t="n">
-        <v>32</v>
-      </c>
-      <c r="D36" s="41" t="n">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="D36" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
@@ -2953,26 +2953,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I36" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I36" s="42" t="inlineStr">
+        <is>
+          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 18:00 Sun</t>
+          <t>2025-06-20 12:00 Fri</t>
         </is>
       </c>
       <c r="B37" s="40" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C37" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D37" s="44" t="n">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="D37" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2986,26 +2986,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I37" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I37" s="42" t="inlineStr">
+        <is>
+          <t>2.1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2025-06-15 21:00 Sun</t>
-        </is>
-      </c>
-      <c r="B38" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C38" s="46" t="n">
-        <v>66</v>
-      </c>
-      <c r="D38" s="45" t="n">
-        <v>2</v>
+          <t>2025-06-20 15:00 Fri</t>
+        </is>
+      </c>
+      <c r="B38" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="C38" s="41" t="n">
+        <v>46</v>
+      </c>
+      <c r="D38" s="48" t="n">
+        <v>25</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3028,17 +3028,17 @@
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 00:00 Mon</t>
-        </is>
-      </c>
-      <c r="B39" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C39" s="46" t="n">
-        <v>63</v>
-      </c>
-      <c r="D39" s="45" t="n">
-        <v>3</v>
+          <t>2025-06-20 18:00 Fri</t>
+        </is>
+      </c>
+      <c r="B39" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" s="41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D39" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3052,59 +3052,59 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I39" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I39" s="42" t="inlineStr">
+        <is>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 03:00 Mon</t>
+          <t>2025-06-20 21:00 Fri</t>
         </is>
       </c>
       <c r="B40" s="41" t="n">
-        <v>19</v>
-      </c>
-      <c r="C40" s="46" t="n">
-        <v>65</v>
-      </c>
-      <c r="D40" s="45" t="n">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C40" s="49" t="n">
+        <v>83</v>
+      </c>
+      <c r="D40" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F40" s="42" t="inlineStr"/>
+      <c r="F40" s="46" t="inlineStr"/>
       <c r="G40" s="42" t="inlineStr"/>
-      <c r="H40" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I40" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H40" s="42" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="I40" s="57" t="inlineStr">
+        <is>
+          <t>37.5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 06:00 Mon</t>
-        </is>
-      </c>
-      <c r="B41" s="40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C41" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="D41" s="45" t="n">
-        <v>5</v>
+          <t>2025-06-21 00:00 Sat</t>
+        </is>
+      </c>
+      <c r="B41" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C41" s="49" t="n">
+        <v>77</v>
+      </c>
+      <c r="D41" s="44" t="n">
+        <v>10</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
       </c>
       <c r="F41" s="42" t="inlineStr"/>
       <c r="G41" s="42" t="inlineStr"/>
-      <c r="H41" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I41" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H41" s="42" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="I41" s="54" t="inlineStr">
+        <is>
+          <t>24.2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 09:00 Mon</t>
-        </is>
-      </c>
-      <c r="B42" s="40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C42" s="41" t="n">
-        <v>33</v>
-      </c>
-      <c r="D42" s="44" t="n">
-        <v>6</v>
+          <t>2025-06-21 03:00 Sat</t>
+        </is>
+      </c>
+      <c r="B42" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" s="49" t="n">
+        <v>87</v>
+      </c>
+      <c r="D42" s="41" t="n">
+        <v>17</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3160,17 +3160,17 @@
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 12:00 Mon</t>
-        </is>
-      </c>
-      <c r="B43" s="43" t="n">
-        <v>31</v>
+          <t>2025-06-21 06:00 Sat</t>
+        </is>
+      </c>
+      <c r="B43" s="40" t="n">
+        <v>25</v>
       </c>
       <c r="C43" s="41" t="n">
-        <v>33</v>
-      </c>
-      <c r="D43" s="44" t="n">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="D43" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3179,31 +3179,31 @@
       </c>
       <c r="F43" s="42" t="inlineStr"/>
       <c r="G43" s="42" t="inlineStr"/>
-      <c r="H43" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I43" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H43" s="42" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="I43" s="42" t="inlineStr">
+        <is>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 15:00 Mon</t>
+          <t>2025-06-21 09:00 Sat</t>
         </is>
       </c>
       <c r="B44" s="40" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="41" t="n">
-        <v>36</v>
-      </c>
-      <c r="D44" s="44" t="n">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="D44" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3217,26 +3217,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I44" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
+      <c r="I44" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 18:00 Mon</t>
+          <t>2025-06-21 12:00 Sat</t>
         </is>
       </c>
       <c r="B45" s="40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C45" s="41" t="n">
-        <v>52</v>
-      </c>
-      <c r="D45" s="41" t="n">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C45" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="D45" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E45" s="38" t="inlineStr">
         <is>
@@ -3250,9 +3250,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I45" s="42" t="inlineStr">
-        <is>
-          <t>2.6</t>
+      <c r="I45" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/data/simpleWeatherSimply.xlsx
+++ b/data/simpleWeatherSimply.xlsx
@@ -1807,17 +1807,17 @@
     <row r="2">
       <c r="A2" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 03:00 Mon</t>
+          <t>2025-07-09 03:00 Wed</t>
         </is>
       </c>
       <c r="B2" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C2" s="41" t="n">
-        <v>53</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="46" t="n">
+        <v>68</v>
       </c>
       <c r="D2" s="44" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="38" t="inlineStr">
         <is>
@@ -1840,17 +1840,17 @@
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 06:00 Mon</t>
+          <t>2025-07-09 06:00 Wed</t>
         </is>
       </c>
       <c r="B3" s="40" t="n">
         <v>26</v>
       </c>
       <c r="C3" s="41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D3" s="41" t="n">
+        <v>17</v>
       </c>
       <c r="E3" s="38" t="inlineStr">
         <is>
@@ -1873,28 +1873,28 @@
     <row r="4">
       <c r="A4" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 09:00 Mon</t>
+          <t>2025-07-09 09:00 Wed</t>
         </is>
       </c>
       <c r="B4" s="40" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="41" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E4" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F4" s="42" t="inlineStr"/>
+      <c r="F4" s="46" t="inlineStr"/>
       <c r="G4" s="42" t="inlineStr"/>
-      <c r="H4" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H4" s="57" t="inlineStr">
+        <is>
+          <t>34</t>
         </is>
       </c>
       <c r="I4" s="38" t="inlineStr">
@@ -1906,17 +1906,17 @@
     <row r="5">
       <c r="A5" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 12:00 Mon</t>
-        </is>
-      </c>
-      <c r="B5" s="43" t="n">
-        <v>32</v>
-      </c>
-      <c r="C5" s="40" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" s="41" t="n">
-        <v>17</v>
+          <t>2025-07-09 12:00 Wed</t>
+        </is>
+      </c>
+      <c r="B5" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="C5" s="41" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" s="50" t="n">
+        <v>36</v>
       </c>
       <c r="E5" s="38" t="inlineStr">
         <is>
@@ -1925,9 +1925,9 @@
       </c>
       <c r="F5" s="42" t="inlineStr"/>
       <c r="G5" s="42" t="inlineStr"/>
-      <c r="H5" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H5" s="57" t="inlineStr">
+        <is>
+          <t>47.5</t>
         </is>
       </c>
       <c r="I5" s="38" t="inlineStr">
@@ -1939,17 +1939,17 @@
     <row r="6">
       <c r="A6" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 15:00 Mon</t>
-        </is>
-      </c>
-      <c r="B6" s="43" t="n">
-        <v>31</v>
-      </c>
-      <c r="C6" s="40" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" s="44" t="n">
-        <v>10</v>
+          <t>2025-07-09 15:00 Wed</t>
+        </is>
+      </c>
+      <c r="B6" s="40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" s="41" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" s="58" t="n">
+        <v>39</v>
       </c>
       <c r="E6" s="38" t="inlineStr">
         <is>
@@ -1958,9 +1958,9 @@
       </c>
       <c r="F6" s="42" t="inlineStr"/>
       <c r="G6" s="42" t="inlineStr"/>
-      <c r="H6" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H6" s="56" t="inlineStr">
+        <is>
+          <t>65.6</t>
         </is>
       </c>
       <c r="I6" s="38" t="inlineStr">
@@ -1972,17 +1972,17 @@
     <row r="7">
       <c r="A7" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 18:00 Mon</t>
-        </is>
-      </c>
-      <c r="B7" s="40" t="n">
-        <v>27</v>
+          <t>2025-07-09 18:00 Wed</t>
+        </is>
+      </c>
+      <c r="B7" s="41" t="n">
+        <v>22</v>
       </c>
       <c r="C7" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="D7" s="44" t="n">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="D7" s="50" t="n">
+        <v>31</v>
       </c>
       <c r="E7" s="38" t="inlineStr">
         <is>
@@ -1991,9 +1991,9 @@
       </c>
       <c r="F7" s="42" t="inlineStr"/>
       <c r="G7" s="42" t="inlineStr"/>
-      <c r="H7" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H7" s="57" t="inlineStr">
+        <is>
+          <t>54.7</t>
         </is>
       </c>
       <c r="I7" s="38" t="inlineStr">
@@ -2005,17 +2005,17 @@
     <row r="8">
       <c r="A8" s="38" t="inlineStr">
         <is>
-          <t>2025-06-16 21:00 Mon</t>
-        </is>
-      </c>
-      <c r="B8" s="40" t="n">
-        <v>24</v>
+          <t>2025-07-09 21:00 Wed</t>
+        </is>
+      </c>
+      <c r="B8" s="41" t="n">
+        <v>22</v>
       </c>
       <c r="C8" s="41" t="n">
-        <v>49</v>
-      </c>
-      <c r="D8" s="44" t="n">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="48" t="n">
+        <v>27</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
         <is>
@@ -2029,26 +2029,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I8" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
+      <c r="I8" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 00:00 Tue</t>
-        </is>
-      </c>
-      <c r="B9" s="40" t="n">
-        <v>23</v>
+          <t>2025-07-10 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B9" s="41" t="n">
+        <v>22</v>
       </c>
       <c r="C9" s="41" t="n">
-        <v>56</v>
-      </c>
-      <c r="D9" s="44" t="n">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="50" t="n">
+        <v>30</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
         <is>
@@ -2062,26 +2062,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I9" s="53" t="inlineStr">
-        <is>
-          <t>10.9</t>
+      <c r="I9" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 03:00 Tue</t>
+          <t>2025-07-10 03:00 Thu</t>
         </is>
       </c>
       <c r="B10" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C10" s="46" t="n">
-        <v>63</v>
-      </c>
-      <c r="D10" s="44" t="n">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="41" t="n">
+        <v>57</v>
+      </c>
+      <c r="D10" s="50" t="n">
+        <v>29</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
         <is>
@@ -2095,26 +2095,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I10" s="56" t="inlineStr">
-        <is>
-          <t>73</t>
+      <c r="I10" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 06:00 Tue</t>
+          <t>2025-07-10 06:00 Thu</t>
         </is>
       </c>
       <c r="B11" s="40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="41" t="n">
-        <v>55</v>
-      </c>
-      <c r="D11" s="45" t="n">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="50" t="n">
+        <v>37</v>
       </c>
       <c r="E11" s="38" t="inlineStr">
         <is>
@@ -2125,29 +2125,29 @@
       <c r="G11" s="42" t="inlineStr"/>
       <c r="H11" s="42" t="inlineStr">
         <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="I11" s="55" t="inlineStr">
-        <is>
-          <t>86.6</t>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="I11" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 09:00 Tue</t>
+          <t>2025-07-10 09:00 Thu</t>
         </is>
       </c>
       <c r="B12" s="40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="41" t="n">
-        <v>38</v>
-      </c>
-      <c r="D12" s="44" t="n">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="50" t="n">
+        <v>36</v>
       </c>
       <c r="E12" s="38" t="inlineStr">
         <is>
@@ -2156,31 +2156,31 @@
       </c>
       <c r="F12" s="42" t="inlineStr"/>
       <c r="G12" s="42" t="inlineStr"/>
-      <c r="H12" s="53" t="inlineStr">
-        <is>
-          <t>14.3</t>
-        </is>
-      </c>
-      <c r="I12" s="56" t="inlineStr">
-        <is>
-          <t>66.5</t>
+      <c r="H12" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 12:00 Tue</t>
-        </is>
-      </c>
-      <c r="B13" s="43" t="n">
-        <v>31</v>
+          <t>2025-07-10 12:00 Thu</t>
+        </is>
+      </c>
+      <c r="B13" s="40" t="n">
+        <v>27</v>
       </c>
       <c r="C13" s="41" t="n">
-        <v>34</v>
-      </c>
-      <c r="D13" s="41" t="n">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="D13" s="50" t="n">
+        <v>35</v>
       </c>
       <c r="E13" s="38" t="inlineStr">
         <is>
@@ -2189,31 +2189,31 @@
       </c>
       <c r="F13" s="42" t="inlineStr"/>
       <c r="G13" s="42" t="inlineStr"/>
-      <c r="H13" s="52" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="I13" s="57" t="inlineStr">
-        <is>
-          <t>36.8</t>
+      <c r="H13" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 15:00 Tue</t>
+          <t>2025-07-10 15:00 Thu</t>
         </is>
       </c>
       <c r="B14" s="40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="41" t="n">
-        <v>34</v>
-      </c>
-      <c r="D14" s="44" t="n">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="D14" s="50" t="n">
+        <v>35</v>
       </c>
       <c r="E14" s="38" t="inlineStr">
         <is>
@@ -2227,26 +2227,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I14" s="53" t="inlineStr">
-        <is>
-          <t>14.1</t>
+      <c r="I14" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 18:00 Tue</t>
+          <t>2025-07-10 18:00 Thu</t>
         </is>
       </c>
       <c r="B15" s="40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="41" t="n">
-        <v>49</v>
-      </c>
-      <c r="D15" s="44" t="n">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="50" t="n">
+        <v>30</v>
       </c>
       <c r="E15" s="38" t="inlineStr">
         <is>
@@ -2260,26 +2260,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I15" s="52" t="inlineStr">
-        <is>
-          <t>8</t>
+      <c r="I15" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="38" t="inlineStr">
         <is>
-          <t>2025-06-17 21:00 Tue</t>
+          <t>2025-07-10 21:00 Thu</t>
         </is>
       </c>
       <c r="B16" s="40" t="n">
         <v>23</v>
       </c>
-      <c r="C16" s="46" t="n">
-        <v>69</v>
-      </c>
-      <c r="D16" s="44" t="n">
-        <v>11</v>
+      <c r="C16" s="41" t="n">
+        <v>54</v>
+      </c>
+      <c r="D16" s="50" t="n">
+        <v>32</v>
       </c>
       <c r="E16" s="38" t="inlineStr">
         <is>
@@ -2293,26 +2293,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I16" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I16" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00 Wed</t>
-        </is>
-      </c>
-      <c r="B17" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C17" s="49" t="n">
-        <v>77</v>
-      </c>
-      <c r="D17" s="44" t="n">
-        <v>10</v>
+          <t>2025-07-11 00:00 Fri</t>
+        </is>
+      </c>
+      <c r="B17" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" s="41" t="n">
+        <v>59</v>
+      </c>
+      <c r="D17" s="48" t="n">
+        <v>24</v>
       </c>
       <c r="E17" s="38" t="inlineStr">
         <is>
@@ -2326,26 +2326,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I17" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I17" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 03:00 Wed</t>
-        </is>
-      </c>
-      <c r="B18" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C18" s="49" t="n">
-        <v>81</v>
-      </c>
-      <c r="D18" s="44" t="n">
-        <v>11</v>
+          <t>2025-07-11 03:00 Fri</t>
+        </is>
+      </c>
+      <c r="B18" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" s="41" t="n">
+        <v>52</v>
+      </c>
+      <c r="D18" s="48" t="n">
+        <v>26</v>
       </c>
       <c r="E18" s="38" t="inlineStr">
         <is>
@@ -2359,26 +2359,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I18" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I18" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 06:00 Wed</t>
+          <t>2025-07-11 06:00 Fri</t>
         </is>
       </c>
       <c r="B19" s="40" t="n">
         <v>25</v>
       </c>
-      <c r="C19" s="46" t="n">
-        <v>61</v>
-      </c>
-      <c r="D19" s="41" t="n">
-        <v>16</v>
+      <c r="C19" s="41" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" s="48" t="n">
+        <v>27</v>
       </c>
       <c r="E19" s="38" t="inlineStr">
         <is>
@@ -2392,26 +2392,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I19" s="42" t="inlineStr">
-        <is>
-          <t>4.8</t>
+      <c r="I19" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 09:00 Wed</t>
+          <t>2025-07-11 09:00 Fri</t>
         </is>
       </c>
       <c r="B20" s="40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="41" t="n">
-        <v>46</v>
-      </c>
-      <c r="D20" s="41" t="n">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="D20" s="48" t="n">
+        <v>27</v>
       </c>
       <c r="E20" s="38" t="inlineStr">
         <is>
@@ -2425,26 +2425,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I20" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I20" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 12:00 Wed</t>
+          <t>2025-07-11 12:00 Fri</t>
         </is>
       </c>
       <c r="B21" s="40" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="41" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21" s="38" t="inlineStr">
         <is>
@@ -2458,26 +2458,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I21" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="I21" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 15:00 Wed</t>
+          <t>2025-07-11 15:00 Fri</t>
         </is>
       </c>
       <c r="B22" s="40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="41" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E22" s="38" t="inlineStr">
         <is>
@@ -2486,31 +2486,31 @@
       </c>
       <c r="F22" s="42" t="inlineStr"/>
       <c r="G22" s="42" t="inlineStr"/>
-      <c r="H22" s="42" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="I22" s="42" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H22" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 18:00 Wed</t>
+          <t>2025-07-11 18:00 Fri</t>
         </is>
       </c>
       <c r="B23" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="C23" s="46" t="n">
-        <v>68</v>
+      <c r="C23" s="41" t="n">
+        <v>46</v>
       </c>
       <c r="D23" s="41" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E23" s="38" t="inlineStr">
         <is>
@@ -2519,28 +2519,28 @@
       </c>
       <c r="F23" s="42" t="inlineStr"/>
       <c r="G23" s="42" t="inlineStr"/>
-      <c r="H23" s="42" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="I23" s="42" t="inlineStr">
-        <is>
-          <t>4.7</t>
+      <c r="H23" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="38" t="inlineStr">
         <is>
-          <t>2025-06-18 21:00 Wed</t>
+          <t>2025-07-11 21:00 Fri</t>
         </is>
       </c>
       <c r="B24" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" s="49" t="n">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="41" t="n">
+        <v>60</v>
       </c>
       <c r="D24" s="44" t="n">
         <v>11</v>
@@ -2552,31 +2552,31 @@
       </c>
       <c r="F24" s="42" t="inlineStr"/>
       <c r="G24" s="42" t="inlineStr"/>
-      <c r="H24" s="42" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="I24" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H24" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 00:00 Thu</t>
+          <t>2025-07-12 00:00 Sat</t>
         </is>
       </c>
       <c r="B25" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C25" s="49" t="n">
-        <v>83</v>
+        <v>20</v>
+      </c>
+      <c r="C25" s="46" t="n">
+        <v>64</v>
       </c>
       <c r="D25" s="44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="38" t="inlineStr">
         <is>
@@ -2585,31 +2585,31 @@
       </c>
       <c r="F25" s="42" t="inlineStr"/>
       <c r="G25" s="42" t="inlineStr"/>
-      <c r="H25" s="42" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="I25" s="42" t="inlineStr">
-        <is>
-          <t>1.3</t>
+      <c r="H25" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 03:00 Thu</t>
+          <t>2025-07-12 03:00 Sat</t>
         </is>
       </c>
       <c r="B26" s="41" t="n">
-        <v>21</v>
-      </c>
-      <c r="C26" s="49" t="n">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="C26" s="46" t="n">
+        <v>68</v>
       </c>
       <c r="D26" s="44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="38" t="inlineStr">
         <is>
@@ -2618,9 +2618,9 @@
       </c>
       <c r="F26" s="42" t="inlineStr"/>
       <c r="G26" s="42" t="inlineStr"/>
-      <c r="H26" s="42" t="inlineStr">
-        <is>
-          <t>0.4</t>
+      <c r="H26" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I26" s="38" t="inlineStr">
@@ -2632,17 +2632,17 @@
     <row r="27">
       <c r="A27" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 06:00 Thu</t>
+          <t>2025-07-12 06:00 Sat</t>
         </is>
       </c>
       <c r="B27" s="40" t="n">
         <v>25</v>
       </c>
       <c r="C27" s="41" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27" s="41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27" s="38" t="inlineStr">
         <is>
@@ -2651,9 +2651,9 @@
       </c>
       <c r="F27" s="42" t="inlineStr"/>
       <c r="G27" s="42" t="inlineStr"/>
-      <c r="H27" s="42" t="inlineStr">
-        <is>
-          <t>0.2</t>
+      <c r="H27" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I27" s="38" t="inlineStr">
@@ -2665,17 +2665,17 @@
     <row r="28">
       <c r="A28" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 09:00 Thu</t>
+          <t>2025-07-12 09:00 Sat</t>
         </is>
       </c>
       <c r="B28" s="40" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="41" t="n">
-        <v>47</v>
-      </c>
-      <c r="D28" s="48" t="n">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="41" t="n">
+        <v>16</v>
       </c>
       <c r="E28" s="38" t="inlineStr">
         <is>
@@ -2698,17 +2698,17 @@
     <row r="29">
       <c r="A29" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 12:00 Thu</t>
-        </is>
-      </c>
-      <c r="B29" s="40" t="n">
-        <v>30</v>
-      </c>
-      <c r="C29" s="41" t="n">
-        <v>42</v>
-      </c>
-      <c r="D29" s="41" t="n">
-        <v>19</v>
+          <t>2025-07-12 12:00 Sat</t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="n">
+        <v>31</v>
+      </c>
+      <c r="C29" s="40" t="n">
+        <v>29</v>
+      </c>
+      <c r="D29" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E29" s="38" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
     <row r="30">
       <c r="A30" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 15:00 Thu</t>
-        </is>
-      </c>
-      <c r="B30" s="40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" s="41" t="n">
-        <v>46</v>
-      </c>
-      <c r="D30" s="48" t="n">
-        <v>20</v>
+          <t>2025-07-12 15:00 Sat</t>
+        </is>
+      </c>
+      <c r="B30" s="43" t="n">
+        <v>31</v>
+      </c>
+      <c r="C30" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" s="41" t="n">
+        <v>14</v>
       </c>
       <c r="E30" s="38" t="inlineStr">
         <is>
@@ -2764,17 +2764,17 @@
     <row r="31">
       <c r="A31" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 18:00 Thu</t>
+          <t>2025-07-12 18:00 Sat</t>
         </is>
       </c>
       <c r="B31" s="40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C31" s="46" t="n">
-        <v>67</v>
-      </c>
-      <c r="D31" s="41" t="n">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C31" s="41" t="n">
+        <v>47</v>
+      </c>
+      <c r="D31" s="45" t="n">
+        <v>2</v>
       </c>
       <c r="E31" s="38" t="inlineStr">
         <is>
@@ -2797,17 +2797,17 @@
     <row r="32">
       <c r="A32" s="38" t="inlineStr">
         <is>
-          <t>2025-06-19 21:00 Thu</t>
+          <t>2025-07-12 21:00 Sat</t>
         </is>
       </c>
       <c r="B32" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="C32" s="49" t="n">
-        <v>80</v>
+      <c r="C32" s="41" t="n">
+        <v>57</v>
       </c>
       <c r="D32" s="44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="38" t="inlineStr">
         <is>
@@ -2830,17 +2830,17 @@
     <row r="33">
       <c r="A33" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 00:00 Fri</t>
+          <t>2025-07-13 00:00 Sun</t>
         </is>
       </c>
       <c r="B33" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="C33" s="49" t="n">
-        <v>82</v>
+      <c r="C33" s="41" t="n">
+        <v>54</v>
       </c>
       <c r="D33" s="44" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="38" t="inlineStr">
         <is>
@@ -2863,17 +2863,17 @@
     <row r="34">
       <c r="A34" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 03:00 Fri</t>
+          <t>2025-07-13 03:00 Sun</t>
         </is>
       </c>
       <c r="B34" s="41" t="n">
         <v>21</v>
       </c>
       <c r="C34" s="49" t="n">
-        <v>89</v>
-      </c>
-      <c r="D34" s="41" t="n">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="D34" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E34" s="38" t="inlineStr">
         <is>
@@ -2896,17 +2896,17 @@
     <row r="35">
       <c r="A35" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 06:00 Fri</t>
+          <t>2025-07-13 06:00 Sun</t>
         </is>
       </c>
       <c r="B35" s="40" t="n">
-        <v>26</v>
-      </c>
-      <c r="C35" s="46" t="n">
-        <v>63</v>
-      </c>
-      <c r="D35" s="41" t="n">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="C35" s="41" t="n">
+        <v>45</v>
+      </c>
+      <c r="D35" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E35" s="38" t="inlineStr">
         <is>
@@ -2929,17 +2929,17 @@
     <row r="36">
       <c r="A36" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 09:00 Fri</t>
-        </is>
-      </c>
-      <c r="B36" s="40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C36" s="41" t="n">
-        <v>48</v>
-      </c>
-      <c r="D36" s="48" t="n">
-        <v>24</v>
+          <t>2025-07-13 09:00 Sun</t>
+        </is>
+      </c>
+      <c r="B36" s="43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" s="43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" s="44" t="n">
+        <v>8</v>
       </c>
       <c r="E36" s="38" t="inlineStr">
         <is>
@@ -2953,26 +2953,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I36" s="42" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="I36" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 12:00 Fri</t>
-        </is>
-      </c>
-      <c r="B37" s="40" t="n">
-        <v>30</v>
-      </c>
-      <c r="C37" s="41" t="n">
-        <v>41</v>
-      </c>
-      <c r="D37" s="48" t="n">
-        <v>26</v>
+          <t>2025-07-13 12:00 Sun</t>
+        </is>
+      </c>
+      <c r="B37" s="43" t="n">
+        <v>34</v>
+      </c>
+      <c r="C37" s="43" t="n">
+        <v>24</v>
+      </c>
+      <c r="D37" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E37" s="38" t="inlineStr">
         <is>
@@ -2986,26 +2986,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I37" s="42" t="inlineStr">
-        <is>
-          <t>2.1</t>
+      <c r="I37" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 15:00 Fri</t>
-        </is>
-      </c>
-      <c r="B38" s="40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C38" s="41" t="n">
-        <v>46</v>
-      </c>
-      <c r="D38" s="48" t="n">
-        <v>25</v>
+          <t>2025-07-13 15:00 Sun</t>
+        </is>
+      </c>
+      <c r="B38" s="43" t="n">
+        <v>33</v>
+      </c>
+      <c r="C38" s="40" t="n">
+        <v>27</v>
+      </c>
+      <c r="D38" s="44" t="n">
+        <v>11</v>
       </c>
       <c r="E38" s="38" t="inlineStr">
         <is>
@@ -3028,17 +3028,17 @@
     <row r="39">
       <c r="A39" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 18:00 Fri</t>
+          <t>2025-07-13 18:00 Sun</t>
         </is>
       </c>
       <c r="B39" s="40" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C39" s="41" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D39" s="44" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E39" s="38" t="inlineStr">
         <is>
@@ -3052,59 +3052,59 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I39" s="42" t="inlineStr">
-        <is>
-          <t>1.8</t>
+      <c r="I39" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="38" t="inlineStr">
         <is>
-          <t>2025-06-20 21:00 Fri</t>
-        </is>
-      </c>
-      <c r="B40" s="41" t="n">
-        <v>20</v>
-      </c>
-      <c r="C40" s="49" t="n">
-        <v>83</v>
-      </c>
-      <c r="D40" s="44" t="n">
-        <v>11</v>
+          <t>2025-07-13 21:00 Sun</t>
+        </is>
+      </c>
+      <c r="B40" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" s="46" t="n">
+        <v>61</v>
+      </c>
+      <c r="D40" s="45" t="n">
+        <v>3</v>
       </c>
       <c r="E40" s="38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F40" s="46" t="inlineStr"/>
+      <c r="F40" s="42" t="inlineStr"/>
       <c r="G40" s="42" t="inlineStr"/>
-      <c r="H40" s="42" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="I40" s="57" t="inlineStr">
-        <is>
-          <t>37.5</t>
+      <c r="H40" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I40" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="38" t="inlineStr">
         <is>
-          <t>2025-06-21 00:00 Sat</t>
-        </is>
-      </c>
-      <c r="B41" s="41" t="n">
-        <v>22</v>
-      </c>
-      <c r="C41" s="49" t="n">
-        <v>77</v>
-      </c>
-      <c r="D41" s="44" t="n">
-        <v>10</v>
+          <t>2025-07-14 00:00 Mon</t>
+        </is>
+      </c>
+      <c r="B41" s="40" t="n">
+        <v>23</v>
+      </c>
+      <c r="C41" s="41" t="n">
+        <v>58</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>5</v>
       </c>
       <c r="E41" s="38" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
       </c>
       <c r="F41" s="42" t="inlineStr"/>
       <c r="G41" s="42" t="inlineStr"/>
-      <c r="H41" s="42" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="I41" s="54" t="inlineStr">
-        <is>
-          <t>24.2</t>
+      <c r="H41" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I41" s="42" t="inlineStr">
+        <is>
+          <t>1.8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="38" t="inlineStr">
         <is>
-          <t>2025-06-21 03:00 Sat</t>
+          <t>2025-07-14 03:00 Mon</t>
         </is>
       </c>
       <c r="B42" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="C42" s="49" t="n">
-        <v>87</v>
-      </c>
-      <c r="D42" s="41" t="n">
-        <v>17</v>
+      <c r="C42" s="41" t="n">
+        <v>60</v>
+      </c>
+      <c r="D42" s="44" t="n">
+        <v>7</v>
       </c>
       <c r="E42" s="38" t="inlineStr">
         <is>
@@ -3151,26 +3151,26 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I42" s="38" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="I42" s="57" t="inlineStr">
+        <is>
+          <t>46.6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38" t="inlineStr">
         <is>
-          <t>2025-06-21 06:00 Sat</t>
+          <t>2025-07-14 06:00 Mon</t>
         </is>
       </c>
       <c r="B43" s="40" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C43" s="41" t="n">
-        <v>54</v>
-      </c>
-      <c r="D43" s="48" t="n">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D43" s="41" t="n">
+        <v>13</v>
       </c>
       <c r="E43" s="38" t="inlineStr">
         <is>
@@ -3179,31 +3179,31 @@
       </c>
       <c r="F43" s="42" t="inlineStr"/>
       <c r="G43" s="42" t="inlineStr"/>
-      <c r="H43" s="42" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="I43" s="42" t="inlineStr">
-        <is>
-          <t>1.6</t>
+      <c r="H43" s="38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I43" s="54" t="inlineStr">
+        <is>
+          <t>23.3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="38" t="inlineStr">
         <is>
-          <t>2025-06-21 09:00 Sat</t>
-        </is>
-      </c>
-      <c r="B44" s="40" t="n">
-        <v>28</v>
-      </c>
-      <c r="C44" s="41" t="n">
-        <v>37</v>
-      </c>
-      <c r="D44" s="50" t="n">
-        <v>31</v>
+          <t>2025-07-14 09:00 Mon</t>
+        </is>
+      </c>
+      <c r="B44" s="43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" s="40" t="n">
+        <v>26</v>
+      </c>
+      <c r="D44" s="48" t="n">
+        <v>20</v>
       </c>
       <c r="E44" s="38" t="inlineStr">
         <is>
@@ -3226,17 +3226,17 @@
     <row r="45">
       <c r="A45" s="38" t="inlineStr">
         <is>
-          <t>2025-06-21 12:00 Sat</t>
-        </is>
-      </c>
-      <c r="B45" s="40" t="n">
-        <v>29</v>
+          <t>2025-07-14 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B45" s="43" t="n">
+        <v>33</v>
       </c>
       <c r="C45" s="40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="38" t="inlineStr">
         <is>
